--- a/pali-class/vocab/vocab-class21.xlsx
+++ b/pali-class/vocab/vocab-class21.xlsx
@@ -49,39 +49,39 @@
     <t>amu</t>
   </si>
   <si>
+    <t>passanta 1</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
+    <t>anussaranta</t>
+  </si>
+  <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 2</t>
+  </si>
+  <si>
+    <t>ajānanta</t>
+  </si>
+  <si>
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>passanta 1</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
-    <t>anussaranta</t>
-  </si>
-  <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
-  </si>
-  <si>
     <t>apassanta</t>
   </si>
   <si>
-    <t>ajānanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 2</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
@@ -91,27 +91,27 @@
     <t>ima 1.1</t>
   </si>
   <si>
+    <t>cavamāna</t>
+  </si>
+  <si>
+    <t>caramāna</t>
+  </si>
+  <si>
+    <t>sampassamāna</t>
+  </si>
+  <si>
+    <t>uppajjamāna</t>
+  </si>
+  <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
+    <t>bhāsamāna</t>
+  </si>
+  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
-    <t>cavamāna</t>
-  </si>
-  <si>
-    <t>caramāna</t>
-  </si>
-  <si>
-    <t>sampassamāna</t>
-  </si>
-  <si>
-    <t>uppajjamāna</t>
-  </si>
-  <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
-    <t>bhāsamāna</t>
-  </si>
-  <si>
     <t>methuna 1</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>pacchima 1</t>
   </si>
   <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
     <t>hīna 1</t>
   </si>
   <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
     <t>anicca 1</t>
   </si>
   <si>
@@ -310,15 +310,15 @@
     <t>anuttara</t>
   </si>
   <si>
+    <t>appamāṇa</t>
+  </si>
+  <si>
     <t>maha 2</t>
   </si>
   <si>
     <t>vipula 1</t>
   </si>
   <si>
-    <t>appamāṇa</t>
-  </si>
-  <si>
     <t>anavajja 1</t>
   </si>
   <si>
@@ -340,108 +340,108 @@
     <t>piya 2</t>
   </si>
   <si>
+    <t>sukha 1</t>
+  </si>
+  <si>
+    <t>matta 2</t>
+  </si>
+  <si>
+    <t>animitta 1</t>
+  </si>
+  <si>
+    <t>bhūta 1</t>
+  </si>
+  <si>
+    <t>oḷārika 2</t>
+  </si>
+  <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
+    <t>akhaṇḍa</t>
+  </si>
+  <si>
+    <t>savicāra</t>
+  </si>
+  <si>
+    <t>savitakka</t>
+  </si>
+  <si>
+    <t>akusala 1</t>
+  </si>
+  <si>
+    <t>sagga 1.1</t>
+  </si>
+  <si>
+    <t>uttama 1</t>
+  </si>
+  <si>
+    <t>abbhuta 1</t>
+  </si>
+  <si>
+    <t>acchariya 1</t>
+  </si>
+  <si>
+    <t>sassata</t>
+  </si>
+  <si>
+    <t>dhuva 1</t>
+  </si>
+  <si>
+    <t>uḷāra 1</t>
+  </si>
+  <si>
+    <t>abhikkanta 3</t>
+  </si>
+  <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>patirūpa</t>
+  </si>
+  <si>
+    <t>jiṇṇa 1</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>appa 1</t>
+  </si>
+  <si>
+    <t>khama 2</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sārambha 2.1</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
+    <t>dussīla 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
     <t>abhikkanta 1</t>
   </si>
   <si>
-    <t>sukha 1</t>
-  </si>
-  <si>
-    <t>matta 2</t>
-  </si>
-  <si>
-    <t>animitta 1</t>
-  </si>
-  <si>
-    <t>bhūta 1</t>
-  </si>
-  <si>
-    <t>oḷārika 2</t>
-  </si>
-  <si>
-    <t>akhaṇḍa</t>
-  </si>
-  <si>
-    <t>savicāra</t>
-  </si>
-  <si>
-    <t>savitakka</t>
-  </si>
-  <si>
-    <t>akusala 1</t>
-  </si>
-  <si>
-    <t>sagga 1.1</t>
-  </si>
-  <si>
-    <t>uttama 1</t>
-  </si>
-  <si>
-    <t>abbhuta 1</t>
-  </si>
-  <si>
-    <t>acchariya 1</t>
-  </si>
-  <si>
     <t>dullabha 1</t>
   </si>
   <si>
-    <t>sassata</t>
-  </si>
-  <si>
-    <t>dhuva 1</t>
-  </si>
-  <si>
-    <t>uḷāra 1</t>
-  </si>
-  <si>
-    <t>abhikkanta 3</t>
-  </si>
-  <si>
     <t>panta 2</t>
   </si>
   <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>patirūpa</t>
-  </si>
-  <si>
-    <t>jiṇṇa 1</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>appa 1</t>
-  </si>
-  <si>
-    <t>khama 2</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
     <t>sāra 1</t>
   </si>
   <si>
-    <t>sārambha 2.1</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>dussīla 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
     <t>sukhuma 1</t>
   </si>
   <si>
@@ -670,66 +670,66 @@
     <t>pavuccati</t>
   </si>
   <si>
+    <t>vuccati</t>
+  </si>
+  <si>
+    <t>pahīyati 1.1</t>
+  </si>
+  <si>
+    <t>nirujjhati</t>
+  </si>
+  <si>
+    <t>ñāyati 1</t>
+  </si>
+  <si>
+    <t>jāyati 2</t>
+  </si>
+  <si>
+    <t>vimuccati</t>
+  </si>
+  <si>
+    <t>vijjati 1</t>
+  </si>
+  <si>
+    <t>parinibbāyati 1</t>
+  </si>
+  <si>
+    <t>muccati 1.1</t>
+  </si>
+  <si>
+    <t>paññāyati 1</t>
+  </si>
+  <si>
+    <t>samādhiyati</t>
+  </si>
+  <si>
+    <t>virajjati 1</t>
+  </si>
+  <si>
+    <t>parimuccati</t>
+  </si>
+  <si>
+    <t>haññati 2</t>
+  </si>
+  <si>
+    <t>dissati 2</t>
+  </si>
+  <si>
+    <t>khajjati 1</t>
+  </si>
+  <si>
+    <t>dissati 1</t>
+  </si>
+  <si>
     <t>chijjati 1</t>
   </si>
   <si>
-    <t>vuccati</t>
-  </si>
-  <si>
-    <t>pahīyati 1.1</t>
-  </si>
-  <si>
-    <t>nirujjhati</t>
-  </si>
-  <si>
-    <t>ñāyati 1</t>
-  </si>
-  <si>
-    <t>jāyati 2</t>
-  </si>
-  <si>
-    <t>vimuccati</t>
-  </si>
-  <si>
-    <t>vijjati 1</t>
-  </si>
-  <si>
     <t>paritassati</t>
   </si>
   <si>
-    <t>parinibbāyati 1</t>
-  </si>
-  <si>
-    <t>muccati 1.1</t>
-  </si>
-  <si>
-    <t>paññāyati 1</t>
-  </si>
-  <si>
-    <t>samādhiyati</t>
-  </si>
-  <si>
-    <t>virajjati 1</t>
-  </si>
-  <si>
-    <t>parimuccati</t>
-  </si>
-  <si>
     <t>vinassati</t>
   </si>
   <si>
-    <t>haññati 2</t>
-  </si>
-  <si>
-    <t>dissati 2</t>
-  </si>
-  <si>
-    <t>khajjati 1</t>
-  </si>
-  <si>
-    <t>dissati 1</t>
-  </si>
-  <si>
     <t>pana</t>
   </si>
   <si>
@@ -766,12 +766,15 @@
     <t>hi 1</t>
   </si>
   <si>
+    <t>ce 1</t>
+  </si>
+  <si>
+    <t>santike 1</t>
+  </si>
+  <si>
     <t>dūre 2</t>
   </si>
   <si>
-    <t>santike 1</t>
-  </si>
-  <si>
     <t>bahiddhā 1</t>
   </si>
   <si>
@@ -814,6 +817,9 @@
     <t>antamaso 1</t>
   </si>
   <si>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
     <t>ajjhattaṃ</t>
   </si>
   <si>
@@ -856,12 +862,6 @@
     <t>aññathā 1</t>
   </si>
   <si>
-    <t>ce 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
     <t>yoniso</t>
   </si>
   <si>
@@ -898,15 +898,15 @@
     <t>kāretabba 1</t>
   </si>
   <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
     <t>daṭṭhabba 1</t>
   </si>
   <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
     <t>pahātabba</t>
   </si>
   <si>
@@ -949,66 +949,66 @@
     <t>deseti 1</t>
   </si>
   <si>
+    <t>sameti 1.1</t>
+  </si>
+  <si>
+    <t>māneti</t>
+  </si>
+  <si>
+    <t>upaṭṭhāpeti 2</t>
+  </si>
+  <si>
+    <t>paññāpeti 3</t>
+  </si>
+  <si>
+    <t>paripūreti 1</t>
+  </si>
+  <si>
+    <t>parisandeti</t>
+  </si>
+  <si>
+    <t>abhininnāmeti 1</t>
+  </si>
+  <si>
+    <t>pakāseti 2</t>
+  </si>
+  <si>
+    <t>parisodheti</t>
+  </si>
+  <si>
+    <t>pasāreti</t>
+  </si>
+  <si>
+    <t>atikkāmeti 2</t>
+  </si>
+  <si>
+    <t>kāreti 4</t>
+  </si>
+  <si>
+    <t>kappeti 1</t>
+  </si>
+  <si>
+    <t>paññapeti 1</t>
+  </si>
+  <si>
+    <t>janeti</t>
+  </si>
+  <si>
+    <t>bhāveti</t>
+  </si>
+  <si>
+    <t>sameti 2.2</t>
+  </si>
+  <si>
+    <t>abhisandeti</t>
+  </si>
+  <si>
+    <t>kāreti 2</t>
+  </si>
+  <si>
     <t>pabbājeti 1</t>
   </si>
   <si>
-    <t>sameti 1.1</t>
-  </si>
-  <si>
-    <t>māneti</t>
-  </si>
-  <si>
-    <t>upaṭṭhāpeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 2</t>
-  </si>
-  <si>
-    <t>paññāpeti 3</t>
-  </si>
-  <si>
-    <t>paripūreti 1</t>
-  </si>
-  <si>
-    <t>parisandeti</t>
-  </si>
-  <si>
-    <t>abhisandeti</t>
-  </si>
-  <si>
-    <t>abhininnāmeti 1</t>
-  </si>
-  <si>
-    <t>pakāseti 2</t>
-  </si>
-  <si>
-    <t>parisodheti</t>
-  </si>
-  <si>
-    <t>pasāreti</t>
-  </si>
-  <si>
-    <t>atikkāmeti 2</t>
-  </si>
-  <si>
-    <t>kāreti 4</t>
-  </si>
-  <si>
-    <t>kappeti 1</t>
-  </si>
-  <si>
-    <t>bhāveti</t>
-  </si>
-  <si>
-    <t>paññapeti 1</t>
-  </si>
-  <si>
-    <t>janeti</t>
-  </si>
-  <si>
-    <t>sameti 2.2</t>
-  </si>
-  <si>
     <t>pamādi</t>
   </si>
   <si>
@@ -1030,15 +1030,15 @@
     <t>tejas 1</t>
   </si>
   <si>
+    <t>āpas</t>
+  </si>
+  <si>
+    <t>cetas</t>
+  </si>
+  <si>
     <t>vāyas</t>
   </si>
   <si>
-    <t>āpas</t>
-  </si>
-  <si>
-    <t>cetas</t>
-  </si>
-  <si>
     <t>rāja 1</t>
   </si>
   <si>
@@ -1048,564 +1048,564 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>attha 1.3</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>nigaṇṭha 1</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>māsa 1.1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>vaṇṇa 03</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>vāda 4</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>attha 3.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>piṇḍa 2</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>deva 4</t>
+  </si>
+  <si>
+    <t>pabbata 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>sūriya 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>dhīra 2.2</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>anta 2</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>kodha 1</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.3</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>nigaṇṭha 1</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>māsa 1.1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>vaṇṇa 03</t>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>moghapurisa</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>nāga 2</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>sāmika 1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>anta 3</t>
+  </si>
+  <si>
+    <t>kaccāna</t>
+  </si>
+  <si>
+    <t>kopa 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>bhāva 1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>paṭilābha</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>pāsāda</t>
+  </si>
+  <si>
+    <t>kumāra 2</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>putta 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>rājañña</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>padesa 1</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>majjha 2</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>sakka 3</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
   </si>
   <si>
     <t>sara 2.1</t>
   </si>
   <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>vāda 4</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>attha 3.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>piṇḍa 2</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>deva 4</t>
-  </si>
-  <si>
-    <t>pabbata 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>sūriya 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>majjha 2</t>
-  </si>
-  <si>
-    <t>anta 3</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>dhīra 2.2</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>anta 2</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kodha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>moghapurisa</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>nāga 2</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>padesa 1</t>
-  </si>
-  <si>
-    <t>sāmika 1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>sakka 3</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>kaccāna</t>
-  </si>
-  <si>
-    <t>kopa 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>bhāva 1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>pāsāda</t>
-  </si>
-  <si>
-    <t>kumāra 2</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>putta 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>rājañña</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>paṭilābha</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
     <t>sīha 1</t>
   </si>
   <si>
@@ -1648,201 +1648,201 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>pasavati 2</t>
+  </si>
+  <si>
+    <t>socati</t>
+  </si>
+  <si>
+    <t>paṭinissajjati</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>samudācarati 2.1</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>phusati 1</t>
+  </si>
+  <si>
+    <t>uddharati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 2</t>
+  </si>
+  <si>
+    <t>passati 3</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>paṭisañcikkhati</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>payirupāsati 1</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>kaṅkhati 1</t>
+  </si>
+  <si>
+    <t>vasati</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>socati</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>paṭinissajjati</t>
-  </si>
-  <si>
-    <t>payirupāsati 1</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>samudācarati 2.1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>phusati 1</t>
-  </si>
-  <si>
-    <t>uddharati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 2</t>
-  </si>
-  <si>
-    <t>passati 3</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>paṭisañcikkhati</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>pasavati 2</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>kaṅkhati 1</t>
-  </si>
-  <si>
-    <t>vasati</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1861,12 +1861,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>seti 2</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>seti 2</t>
-  </si>
-  <si>
     <t>deti 1</t>
   </si>
   <si>
@@ -1891,39 +1891,39 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>pajānāti</t>
   </si>
   <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>vijānāti 1</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>saṇṭhāti</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>vijānāti 1</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>saṇṭhāti</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -1939,6 +1939,9 @@
     <t>ādiyati 1</t>
   </si>
   <si>
+    <t>āpajjati 5</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -1948,36 +1951,33 @@
     <t>maññati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>muñcati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>upādiyati</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>muñcati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 5</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
@@ -2035,18 +2035,18 @@
     <t>pakkāmi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -2062,6 +2062,9 @@
     <t>sārathi 1</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -2083,9 +2086,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -2107,12 +2107,12 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -2158,6 +2158,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -2179,9 +2182,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -2248,6 +2248,9 @@
     <t>taṃ 2.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
@@ -2257,24 +2260,21 @@
     <t>tumhe 1</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
+    <t>te 2.3</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>te 2.3</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -2377,27 +2377,30 @@
     <t>akkhātar</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>dātar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
+    <t>mātāpitar</t>
+  </si>
+  <si>
     <t>bhātar</t>
   </si>
   <si>
-    <t>mātāpitar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
     <t>kālena</t>
   </si>
   <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
     <t>āyatiṃ</t>
   </si>
   <si>
@@ -2413,36 +2416,33 @@
     <t>ca 1</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>dāni</t>
+  </si>
+  <si>
+    <t>ajja</t>
+  </si>
+  <si>
     <t>sabbadā</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>dāni</t>
-  </si>
-  <si>
-    <t>ajja</t>
-  </si>
-  <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>garu 5</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
     <t>bhikkhu</t>
   </si>
   <si>
     <t>maccu</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
@@ -2461,12 +2461,12 @@
     <t>lokavidū</t>
   </si>
   <si>
+    <t>paṭighāta 1</t>
+  </si>
+  <si>
     <t>gāha 2.2</t>
   </si>
   <si>
-    <t>paṭighāta 1</t>
-  </si>
-  <si>
     <t>nahāyati</t>
   </si>
   <si>
@@ -2488,15 +2488,15 @@
     <t>passeyya 1</t>
   </si>
   <si>
+    <t>vihareyya</t>
+  </si>
+  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
     <t>upapajjeyya</t>
   </si>
   <si>
-    <t>vihareyya</t>
-  </si>
-  <si>
     <t>hanati 2</t>
   </si>
   <si>
@@ -2533,6 +2533,12 @@
     <t>disā 1</t>
   </si>
   <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
     <t>paññā 1</t>
   </si>
   <si>
@@ -2587,12 +2593,6 @@
     <t>avijjā</t>
   </si>
   <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
     <t>upasampadā 2</t>
   </si>
   <si>
@@ -2635,54 +2635,54 @@
     <t>hitvā</t>
   </si>
   <si>
+    <t>disvā</t>
+  </si>
+  <si>
+    <t>ñatvā</t>
+  </si>
+  <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>sutvā</t>
+  </si>
+  <si>
+    <t>pharitvā 1</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>katvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>paṭissutvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>caritvā 1.1</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
+    <t>disvāna</t>
+  </si>
+  <si>
     <t>paggahetvā 2</t>
   </si>
   <si>
-    <t>disvā</t>
-  </si>
-  <si>
-    <t>ñatvā</t>
-  </si>
-  <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>sutvā</t>
-  </si>
-  <si>
-    <t>pharitvā 1</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>katvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
-  </si>
-  <si>
-    <t>paṭissutvā</t>
-  </si>
-  <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>caritvā 1.1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
-    <t>disvāna</t>
-  </si>
-  <si>
     <t>mātar</t>
   </si>
   <si>
@@ -2713,27 +2713,27 @@
     <t>paṇidhāya 1</t>
   </si>
   <si>
+    <t>ādāya 4</t>
+  </si>
+  <si>
+    <t>pahāya 1</t>
+  </si>
+  <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>vivicca</t>
+  </si>
+  <si>
+    <t>uṭṭhāya</t>
+  </si>
+  <si>
+    <t>nisajja</t>
+  </si>
+  <si>
     <t>abhinivissa</t>
   </si>
   <si>
-    <t>ādāya 4</t>
-  </si>
-  <si>
-    <t>pahāya 1</t>
-  </si>
-  <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
-    <t>vivicca</t>
-  </si>
-  <si>
-    <t>uṭṭhāya</t>
-  </si>
-  <si>
-    <t>nisajja</t>
-  </si>
-  <si>
     <t>ṭhiti 1</t>
   </si>
   <si>
@@ -2758,21 +2758,21 @@
     <t>ruci</t>
   </si>
   <si>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
+  </si>
+  <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
     <t>sugati</t>
   </si>
   <si>
-    <t>sati 1.2</t>
-  </si>
-  <si>
-    <t>pīti 1.1</t>
-  </si>
-  <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
     <t>vimutti</t>
   </si>
   <si>
@@ -2782,51 +2782,51 @@
     <t>yattha</t>
   </si>
   <si>
+    <t>tatra 2</t>
+  </si>
+  <si>
+    <t>idha 1</t>
+  </si>
+  <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>katthaci 1</t>
+  </si>
+  <si>
+    <t>purato</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>ekato 1</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
+  </si>
+  <si>
+    <t>yato 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>tato 4</t>
+  </si>
+  <si>
     <t>ettha 1</t>
   </si>
   <si>
-    <t>tatra 2</t>
-  </si>
-  <si>
-    <t>idha 1</t>
-  </si>
-  <si>
-    <t>katthaci 1</t>
-  </si>
-  <si>
-    <t>purato</t>
-  </si>
-  <si>
-    <t>idha 2</t>
-  </si>
-  <si>
-    <t>ekato 1</t>
-  </si>
-  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>yato 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>tato 4</t>
-  </si>
-  <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2887,279 +2887,279 @@
     <t>bhūta 3</t>
   </si>
   <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>aṅga 1</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>khetta 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>pada 12</t>
+  </si>
+  <si>
+    <t>kula 2</t>
+  </si>
+  <si>
+    <t>ratana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>pahāna</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>arañña</t>
+  </si>
+  <si>
+    <t>sīsa 1</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>jīvita 2</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>bhadra 3</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1.1</t>
+  </si>
+  <si>
+    <t>amata 1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>vattha 1.1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>ñāṇa</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>dassanāya 2</t>
+  </si>
+  <si>
+    <t>phala 1.1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>aṅga 2</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>sota 2.1</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2.1</t>
+  </si>
+  <si>
+    <t>vana 1.1</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
+    <t>mukha 3</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>cakka 1</t>
+  </si>
+  <si>
+    <t>rūpa 3</t>
+  </si>
+  <si>
+    <t>viññāṇa 1</t>
+  </si>
+  <si>
+    <t>addhāna 2</t>
+  </si>
+  <si>
+    <t>dāna 1.2</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>dassana 3</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>maṃsa 1</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>raṭṭha</t>
+  </si>
+  <si>
+    <t>somanassa</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>sāsana 1</t>
+  </si>
+  <si>
+    <t>bhatta 1.1</t>
+  </si>
+  <si>
+    <t>pāra 1.1</t>
+  </si>
+  <si>
+    <t>ātappa</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>bala 1</t>
+  </si>
+  <si>
+    <t>nimitta 1</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>jīvita 1</t>
+  </si>
+  <si>
+    <t>ghāna</t>
+  </si>
+  <si>
+    <t>appaka 2</t>
+  </si>
+  <si>
+    <t>addhāna 1</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>citta 1.1</t>
+  </si>
+  <si>
     <t>jīva 2</t>
   </si>
   <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>aṅga 1</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>khetta 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>pada 12</t>
-  </si>
-  <si>
-    <t>kula 2</t>
-  </si>
-  <si>
-    <t>ratana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>pahāna</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>arañña</t>
-  </si>
-  <si>
-    <t>sīsa 1</t>
-  </si>
-  <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>amata 1</t>
-  </si>
-  <si>
-    <t>jīvita 2</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>bhadra 3</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1.1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>vattha 1.1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>ñāṇa</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>dassanāya 2</t>
-  </si>
-  <si>
-    <t>phala 1.1</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>aṅga 2</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>sota 2.1</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2.1</t>
-  </si>
-  <si>
-    <t>vana 1.1</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
-    <t>mukha 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>cakka 1</t>
-  </si>
-  <si>
-    <t>rūpa 3</t>
-  </si>
-  <si>
-    <t>viññāṇa 1</t>
-  </si>
-  <si>
-    <t>addhāna 2</t>
-  </si>
-  <si>
-    <t>dāna 1.2</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>dassana 3</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>maṃsa 1</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>raṭṭha</t>
-  </si>
-  <si>
-    <t>somanassa</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>sāsana 1</t>
-  </si>
-  <si>
-    <t>bhatta 1.1</t>
-  </si>
-  <si>
-    <t>pāra 1.1</t>
-  </si>
-  <si>
-    <t>ātappa</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>bala 1</t>
-  </si>
-  <si>
-    <t>nimitta 1</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>jīvita 1</t>
-  </si>
-  <si>
-    <t>ghāna</t>
-  </si>
-  <si>
-    <t>appaka 2</t>
-  </si>
-  <si>
-    <t>addhāna 1</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>citta 1.1</t>
-  </si>
-  <si>
     <t>jhāna 2</t>
   </si>
   <si>
@@ -3340,39 +3340,39 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
+    <t>seeing; perceiving</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
+    <t>remembering; recollecting; keeping in mind</t>
+  </si>
+  <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
+    <t>lasting; remaining; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>not knowing; being ignorant (of)</t>
+  </si>
+  <si>
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
-    <t>seeing; perceiving</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
-    <t>remembering; recollecting; keeping in mind</t>
-  </si>
-  <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
-  </si>
-  <si>
     <t>not seeing; not noticing; not aware</t>
   </si>
   <si>
-    <t>not knowing; being ignorant (of)</t>
-  </si>
-  <si>
-    <t>lasting; remaining; persisting; lit. standing</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
@@ -3382,27 +3382,27 @@
     <t>this</t>
   </si>
   <si>
+    <t>falling away; dying</t>
+  </si>
+  <si>
+    <t>walking; walking about; wandering around (in); going around</t>
+  </si>
+  <si>
+    <t>seeing; observing; considering</t>
+  </si>
+  <si>
+    <t>arising; appearing; coming into being</t>
+  </si>
+  <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
+    <t>speaking (about); talking (about); saying</t>
+  </si>
+  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
-    <t>falling away; dying</t>
-  </si>
-  <si>
-    <t>walking; walking about; wandering around (in); going around</t>
-  </si>
-  <si>
-    <t>seeing; observing; considering</t>
-  </si>
-  <si>
-    <t>arising; appearing; coming into being</t>
-  </si>
-  <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
-    <t>speaking (about); talking (about); saying</t>
-  </si>
-  <si>
     <t>sexual</t>
   </si>
   <si>
@@ -3451,12 +3451,12 @@
     <t>last; final</t>
   </si>
   <si>
+    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
+  </si>
+  <si>
     <t>low; inferior; deficient</t>
   </si>
   <si>
-    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
-  </si>
-  <si>
     <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
   </si>
   <si>
@@ -3601,15 +3601,15 @@
     <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
   </si>
   <si>
+    <t>immeasurable; unlimited; limitless; boundless</t>
+  </si>
+  <si>
     <t>great; venerable; honourable; respected</t>
   </si>
   <si>
     <t>vast; extensive; expansive; massive</t>
   </si>
   <si>
-    <t>immeasurable; unlimited; limitless; boundless</t>
-  </si>
-  <si>
     <t>irreproachable; faultless; blameless; innocent; lit. not to be dispraised</t>
   </si>
   <si>
@@ -3631,108 +3631,108 @@
     <t>liked; pleasant; agreeable</t>
   </si>
   <si>
+    <t>easy (on); comfortable (for); pleasant (for); good (for); contented</t>
+  </si>
+  <si>
+    <t>mere; simple; the fact of; by virtue of</t>
+  </si>
+  <si>
+    <t>signless; featureless; free of mental images; lit. no sign</t>
+  </si>
+  <si>
+    <t>existing; born; living; lit. become</t>
+  </si>
+  <si>
+    <t>(of food) solid; heavy; substantial</t>
+  </si>
+  <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
+    <t>unbroken; unfragmented; whole</t>
+  </si>
+  <si>
+    <t>with investigation; with consideration</t>
+  </si>
+  <si>
+    <t>with thinking; accompanied with reflection</t>
+  </si>
+  <si>
+    <t>unskilful; incompetent; inexperienced</t>
+  </si>
+  <si>
+    <t>heavenly</t>
+  </si>
+  <si>
+    <t>best; highest; ultimate; supreme; top</t>
+  </si>
+  <si>
+    <t>marvellous; extraordinary; unbelievable; astonishing</t>
+  </si>
+  <si>
+    <t>wonderful; marvellous</t>
+  </si>
+  <si>
+    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
+  </si>
+  <si>
+    <t>stable; enduring; eternal; everlasting</t>
+  </si>
+  <si>
+    <t>excellent; lofty; high; noble</t>
+  </si>
+  <si>
+    <t>progressing; moving on; (comm) ending; depletion</t>
+  </si>
+  <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>suitable (for); proper (for); appropriate (for); befitting (for)</t>
+  </si>
+  <si>
+    <t>aged; old; ancient</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>few; not many; not much</t>
+  </si>
+  <si>
+    <t>fit (for); capable (of); suitable (for)</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>harmful; hurtful; injurious (to living creatures)</t>
+  </si>
+  <si>
+    <t>dark; black</t>
+  </si>
+  <si>
+    <t>unprincipled; immoral; of bad behaviour</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
     <t>superb; surpassing; excellent</t>
   </si>
   <si>
-    <t>easy (on); comfortable (for); pleasant (for); good (for); contented</t>
-  </si>
-  <si>
-    <t>mere; simple; the fact of; by virtue of</t>
-  </si>
-  <si>
-    <t>signless; featureless; free of mental images; lit. no sign</t>
-  </si>
-  <si>
-    <t>existing; born; living; lit. become</t>
-  </si>
-  <si>
-    <t>(of food) solid; heavy; substantial</t>
-  </si>
-  <si>
-    <t>unbroken; unfragmented; whole</t>
-  </si>
-  <si>
-    <t>with investigation; with consideration</t>
-  </si>
-  <si>
-    <t>with thinking; accompanied with reflection</t>
-  </si>
-  <si>
-    <t>unskilful; incompetent; inexperienced</t>
-  </si>
-  <si>
-    <t>heavenly</t>
-  </si>
-  <si>
-    <t>best; highest; ultimate; supreme; top</t>
-  </si>
-  <si>
-    <t>marvellous; extraordinary; unbelievable; astonishing</t>
-  </si>
-  <si>
-    <t>wonderful; marvellous</t>
-  </si>
-  <si>
     <t>difficult to find (for); hard to obtain (for); rare (for)</t>
   </si>
   <si>
-    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
-  </si>
-  <si>
-    <t>stable; enduring; eternal; everlasting</t>
-  </si>
-  <si>
-    <t>excellent; lofty; high; noble</t>
-  </si>
-  <si>
-    <t>progressing; moving on; (comm) ending; depletion</t>
-  </si>
-  <si>
     <t>secluded; isolated; solitary</t>
   </si>
   <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>suitable (for); proper (for); appropriate (for); befitting (for)</t>
-  </si>
-  <si>
-    <t>aged; old; ancient</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>few; not many; not much</t>
-  </si>
-  <si>
-    <t>fit (for); capable (of); suitable (for)</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
     <t>essential; substantial; valuable; sound</t>
   </si>
   <si>
-    <t>harmful; hurtful; injurious (to living creatures)</t>
-  </si>
-  <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>unprincipled; immoral; of bad behaviour</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
     <t>fine; subtle; refined</t>
   </si>
   <si>
@@ -3961,66 +3961,66 @@
     <t>is called; is named; is said to be</t>
   </si>
   <si>
+    <t>is said to be; is called</t>
+  </si>
+  <si>
+    <t>is abandoned; is given up</t>
+  </si>
+  <si>
+    <t>dissolves; finishes; stops; ceases; vanishes</t>
+  </si>
+  <si>
+    <t>is known; is evident; is perceived</t>
+  </si>
+  <si>
+    <t>arises (in); is produced (from)</t>
+  </si>
+  <si>
+    <t>is released (from); is free (from)</t>
+  </si>
+  <si>
+    <t>exists (in); is found (in); is present (in)</t>
+  </si>
+  <si>
+    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
+  </si>
+  <si>
+    <t>is free (from); becomes free (from); is released (from)</t>
+  </si>
+  <si>
+    <t>is clearly known; is evident; is perceived; there is</t>
+  </si>
+  <si>
+    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
+  </si>
+  <si>
+    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
+  </si>
+  <si>
+    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
+  </si>
+  <si>
+    <t>is hurt; is killed; is destroyed</t>
+  </si>
+  <si>
+    <t>seems; lit. is seen</t>
+  </si>
+  <si>
+    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
+  </si>
+  <si>
+    <t>is seen; is observed; is manifest</t>
+  </si>
+  <si>
     <t>is cut off; is severed</t>
   </si>
   <si>
-    <t>is said to be; is called</t>
-  </si>
-  <si>
-    <t>is abandoned; is given up</t>
-  </si>
-  <si>
-    <t>dissolves; finishes; stops; ceases; vanishes</t>
-  </si>
-  <si>
-    <t>is known; is evident; is perceived</t>
-  </si>
-  <si>
-    <t>arises (in); is produced (from)</t>
-  </si>
-  <si>
-    <t>is released (from); is free (from)</t>
-  </si>
-  <si>
-    <t>exists (in); is found (in); is present (in)</t>
-  </si>
-  <si>
     <t>is perturbed; is shaken; is agitated; is anguished</t>
   </si>
   <si>
-    <t>(of mental defilement) is completely quenched; is entirely emancipated; is completely cooled</t>
-  </si>
-  <si>
-    <t>is free (from); becomes free (from); is released (from)</t>
-  </si>
-  <si>
-    <t>is clearly known; is evident; is perceived; there is</t>
-  </si>
-  <si>
-    <t>is calmed (for); becomes collected (for); becomes composed (for); becomes stable (for); lit. is placed together</t>
-  </si>
-  <si>
-    <t>becomes detached (from); loses interest (in); becomes dispassionate (towards); gets bored (with)</t>
-  </si>
-  <si>
-    <t>is completely freed (from); is totally liberated (from); escapes (from)</t>
-  </si>
-  <si>
     <t>disappears; vanishes; perishes; is destroyed</t>
   </si>
   <si>
-    <t>is hurt; is killed; is destroyed</t>
-  </si>
-  <si>
-    <t>seems; lit. is seen</t>
-  </si>
-  <si>
-    <t>is being eaten (by); is being nibbled (by); lit. is being chewed</t>
-  </si>
-  <si>
-    <t>is seen; is observed; is manifest</t>
-  </si>
-  <si>
     <t>moreover; and so; but; or; however</t>
   </si>
   <si>
@@ -4057,12 +4057,15 @@
     <t>indeed; certainly; truly; definitely</t>
   </si>
   <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
+  </si>
+  <si>
     <t>away (from); far away (from); distant (from)</t>
   </si>
   <si>
-    <t>to; in the presence (of); near (to); nearby; close (to); on the verge (of); lit. near</t>
-  </si>
-  <si>
     <t>externally; outwardly</t>
   </si>
   <si>
@@ -4075,9 +4078,6 @@
     <t>again; once more</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
@@ -4105,6 +4105,9 @@
     <t>even so much as; even with; even down to; with as little as</t>
   </si>
   <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
     <t>internally; inwardly; personally</t>
   </si>
   <si>
@@ -4147,9 +4150,6 @@
     <t>differently; otherwise</t>
   </si>
   <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
     <t>properly; prudently; thoroughly; carefully; intelligently; lit. to the source</t>
   </si>
   <si>
@@ -4186,15 +4186,15 @@
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
     <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
   </si>
   <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
     <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
   </si>
   <si>
@@ -4237,66 +4237,66 @@
     <t>preach (to); teaches (to); explains (to)</t>
   </si>
   <si>
+    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
+  </si>
+  <si>
+    <t>honour; reveres; hold in high esteem</t>
+  </si>
+  <si>
+    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
+  </si>
+  <si>
+    <t>is evident; lit. makes itself known</t>
+  </si>
+  <si>
+    <t>fills up; fills out; lit. causes to fill</t>
+  </si>
+  <si>
+    <t>soaks; drenches; lit. makes flow around</t>
+  </si>
+  <si>
+    <t>inclines (towards); bends (towards); directs (towards)</t>
+  </si>
+  <si>
+    <t>explains; illustrates; illuminates; reveals; teaches</t>
+  </si>
+  <si>
+    <t>cleans (from); purifies (of)</t>
+  </si>
+  <si>
+    <t>stretches out; straightens; extends; lit. causes to go forward</t>
+  </si>
+  <si>
+    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
+  </si>
+  <si>
+    <t>builds; has constructed; lit. causes to build</t>
+  </si>
+  <si>
+    <t>prepares; arranges; forms; fashions; constructs</t>
+  </si>
+  <si>
+    <t>teaches; preaches; proclaims; lit. causes to know</t>
+  </si>
+  <si>
+    <t>generates; produces; lit. causes to be born</t>
+  </si>
+  <si>
+    <t>cultivates; develops; lit. causes to become</t>
+  </si>
+  <si>
+    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
+  </si>
+  <si>
+    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
+  </si>
+  <si>
+    <t>performs; practices</t>
+  </si>
+  <si>
     <t>banishes (from); exiles (from); drives away (from); lit. causes to leave</t>
   </si>
   <si>
-    <t>calms down; settles; stills; makes subside; lit. causes to be calm</t>
-  </si>
-  <si>
-    <t>honour; reveres; hold in high esteem</t>
-  </si>
-  <si>
-    <t>establishes; sets up; causes to be present; makes sure one has; lit. causes to stand near</t>
-  </si>
-  <si>
-    <t>performs; practices</t>
-  </si>
-  <si>
-    <t>is evident; lit. makes itself known</t>
-  </si>
-  <si>
-    <t>fills up; fills out; lit. causes to fill</t>
-  </si>
-  <si>
-    <t>soaks; drenches; lit. makes flow around</t>
-  </si>
-  <si>
-    <t>fills up; fills to the brim; overflows; lit. causes to overflow</t>
-  </si>
-  <si>
-    <t>inclines (towards); bends (towards); directs (towards)</t>
-  </si>
-  <si>
-    <t>explains; illustrates; illuminates; reveals; teaches</t>
-  </si>
-  <si>
-    <t>cleans (from); purifies (of)</t>
-  </si>
-  <si>
-    <t>stretches out; straightens; extends; lit. causes to go forward</t>
-  </si>
-  <si>
-    <t>exceeds; goes over; oversteps; lit. causes to go beyond</t>
-  </si>
-  <si>
-    <t>builds; has constructed; lit. causes to build</t>
-  </si>
-  <si>
-    <t>prepares; arranges; forms; fashions; constructs</t>
-  </si>
-  <si>
-    <t>cultivates; develops; lit. causes to become</t>
-  </si>
-  <si>
-    <t>teaches; preaches; proclaims; lit. causes to know</t>
-  </si>
-  <si>
-    <t>generates; produces; lit. causes to be born</t>
-  </si>
-  <si>
-    <t>agrees (with); matches (with); fits (with); fits in (with)</t>
-  </si>
-  <si>
     <t>was careless (about); neglected; was negligent (with); was heedless (about)</t>
   </si>
   <si>
@@ -4318,15 +4318,15 @@
     <t>flame; fire; heat</t>
   </si>
   <si>
+    <t>water; liquid</t>
+  </si>
+  <si>
+    <t>mind; thought; intention</t>
+  </si>
+  <si>
     <t>air; wind</t>
   </si>
   <si>
-    <t>water; liquid</t>
-  </si>
-  <si>
-    <t>mind; thought; intention</t>
-  </si>
-  <si>
     <t>king; ruler</t>
   </si>
   <si>
@@ -4336,558 +4336,558 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>purpose; use; function</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>Jain; naked ascetic; lit. free from ties</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>appearance; complexion; lit. cover</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>saying; mentioning</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>home; rest; shelter</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>bit of food; alms food</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>mountain; hill</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>sun; lit. shining</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>wise man; sage; intelligent person</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>end (of); limit (of); finish (of); conclusion (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>anger; wrath; rage; temper</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>purpose; use; function</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>Jain; naked ascetic; lit. free from ties</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>appearance; complexion; lit. cover</t>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>tusker; bull elephant</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>end; side; extreme</t>
+  </si>
+  <si>
+    <t>family name; lit. descendant of Kati</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>state; condition; characteristic; nature</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>mansion; stately home; palace; building with pillars</t>
+  </si>
+  <si>
+    <t>prince</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>(used to form diminutives) young man; descendent; son of</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>man of the ruling class; young noble</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>place; location; region; area</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>Sakyan; of the Sakyan people</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
     <t>sound; voice; tone</t>
   </si>
   <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>saying; mentioning</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>home; rest; shelter</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>bit of food; alms food</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>sky</t>
-  </si>
-  <si>
-    <t>mountain; hill</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>sun; lit. shining</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>end; side; extreme</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>wise man; sage; intelligent person</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>end (of); limit (of); finish (of); conclusion (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>anger; wrath; rage; temper</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>tusker; bull elephant</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>place; location; region; area</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>Sakyan; of the Sakyan people</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>family name; lit. descendant of Kati</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>state; condition; characteristic; nature</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>mansion; stately home; palace; building with pillars</t>
-  </si>
-  <si>
-    <t>prince</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>(used to form diminutives) young man; descendent; son of</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>man of the ruling class; young noble</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
     <t>lion</t>
   </si>
   <si>
@@ -4930,201 +4930,201 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
+  </si>
+  <si>
+    <t>sorrows (over); grieves (about); mourns (over)</t>
+  </si>
+  <si>
+    <t>gives up; relinquishes; drops; abandons</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>overwhelms; assails; assaults; (comm) occurs; lit. walks all over</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>touches; contacts; feels; experiences</t>
+  </si>
+  <si>
+    <t>pulls up; pulls out; lifts up; raises</t>
+  </si>
+  <si>
+    <t>puts down; places down; lays down; lit. throws down</t>
+  </si>
+  <si>
+    <t>finds; encounters; meets with; lit. sees</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>reflects; considers; discerns</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>associates closely (with); attends closely (to); sits at the feet (of); lit. sits around near</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>has doubt (about); is uncertain (about)</t>
+  </si>
+  <si>
+    <t>lives; stays; resides (in)</t>
+  </si>
+  <si>
+    <t>stands</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>sorrows (over); grieves (about); mourns (over)</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>gives up; relinquishes; drops; abandons</t>
-  </si>
-  <si>
-    <t>associates closely (with); attends closely (to); sits at the feet (of); lit. sits around near</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>overwhelms; assails; assaults; (comm) occurs; lit. walks all over</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>touches; contacts; feels; experiences</t>
-  </si>
-  <si>
-    <t>pulls up; pulls out; lifts up; raises</t>
-  </si>
-  <si>
-    <t>puts down; places down; lays down; lit. throws down</t>
-  </si>
-  <si>
-    <t>finds; encounters; meets with; lit. sees</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>reflects; considers; discerns</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>increases; develops; grows</t>
   </si>
   <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>produces; generates; makes; gives birth to; lit. flows forth</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>has doubt (about); is uncertain (about)</t>
-  </si>
-  <si>
-    <t>lives; stays; resides (in)</t>
-  </si>
-  <si>
-    <t>stands</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -5143,12 +5143,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>sleeps</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>sleeps</t>
-  </si>
-  <si>
     <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
@@ -5173,36 +5173,36 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>knows; knows clearly; understands; distinguishes</t>
   </si>
   <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
+    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>remains (in); continues (in); persists (in); is established (in); stands firm (in); lit. stands together</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -5218,6 +5218,9 @@
     <t>takes; grasps; embraces</t>
   </si>
   <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -5227,36 +5230,33 @@
     <t>thinks; imagines; conceives: presumes; supposes</t>
   </si>
   <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>gets angry (with); lit. releases</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>gets angry (with); lit. releases</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
@@ -5314,18 +5314,18 @@
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -5341,6 +5341,9 @@
     <t>charioteer; driver</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -5362,9 +5365,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -5386,12 +5386,12 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -5437,6 +5437,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -5458,9 +5461,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -5527,6 +5527,9 @@
     <t>you (object)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>for you all; to you all</t>
   </si>
   <si>
@@ -5536,24 +5539,21 @@
     <t>you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
     <t>you (subject)</t>
   </si>
   <si>
+    <t>for you; to you</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
   </si>
   <si>
-    <t>for you; to you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -5656,27 +5656,30 @@
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
+    <t>mother and father; parents</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
-    <t>mother and father; parents</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
     <t>in future</t>
   </si>
   <si>
@@ -5692,36 +5695,33 @@
     <t>and; both</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>now; immediately</t>
+  </si>
+  <si>
+    <t>today; now</t>
+  </si>
+  <si>
     <t>always; at all times</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>now; immediately</t>
-  </si>
-  <si>
-    <t>today; now</t>
-  </si>
-  <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>respect; honour</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
     <t>monk; fully ordained monk; mendicant; lit. beggar</t>
   </si>
   <si>
     <t>death; Death</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
@@ -5740,12 +5740,12 @@
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>warding off; repelling; driving off</t>
+  </si>
+  <si>
     <t>hiding place; lit. dive</t>
   </si>
   <si>
-    <t>warding off; repelling; driving off</t>
-  </si>
-  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
@@ -5767,15 +5767,15 @@
     <t>could see; would see</t>
   </si>
   <si>
+    <t>could live; could stay (in)</t>
+  </si>
+  <si>
     <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
     <t>would be reborn (in); would re-arise (in); lit. could go towards</t>
   </si>
   <si>
-    <t>could live; could stay (in)</t>
-  </si>
-  <si>
     <t>kills; executes</t>
   </si>
   <si>
@@ -5812,6 +5812,12 @@
     <t>direction; cardinal point</t>
   </si>
   <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
     <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
   </si>
   <si>
@@ -5863,12 +5869,6 @@
     <t>ignorance; illusion; not knowing; not understanding</t>
   </si>
   <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
     <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
@@ -5911,48 +5911,48 @@
     <t>having left; having left behind; having abandoned</t>
   </si>
   <si>
+    <t>having seen; having understood; having found out</t>
+  </si>
+  <si>
+    <t>having known; having found out; having understood</t>
+  </si>
+  <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having heard; having listened (to)</t>
+  </si>
+  <si>
+    <t>having suffused; having pervaded; having filled</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
+  </si>
+  <si>
+    <t>having walked; having wandered</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
+    <t>having seen</t>
+  </si>
+  <si>
     <t>having raised up; having lifted up</t>
   </si>
   <si>
-    <t>having seen; having understood; having found out</t>
-  </si>
-  <si>
-    <t>having known; having found out; having understood</t>
-  </si>
-  <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having heard; having listened (to)</t>
-  </si>
-  <si>
-    <t>having suffused; having pervaded; having filled</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
-  </si>
-  <si>
-    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
-  </si>
-  <si>
-    <t>having walked; having wandered</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
-    <t>having seen</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -5983,27 +5983,27 @@
     <t>guiding; directing; determining; setting; lit. placing forward</t>
   </si>
   <si>
+    <t>adopting; assuming; according (to); lit. taking</t>
+  </si>
+  <si>
+    <t>leaving behind; giving up; abandoning</t>
+  </si>
+  <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>separating (from); aloof (from)</t>
+  </si>
+  <si>
+    <t>rising (from); emerging (from); getting up (from)</t>
+  </si>
+  <si>
+    <t>sitting down</t>
+  </si>
+  <si>
     <t>attaching; clinging; adhering; sticking</t>
   </si>
   <si>
-    <t>adopting; assuming; according (to); lit. taking</t>
-  </si>
-  <si>
-    <t>leaving behind; giving up; abandoning</t>
-  </si>
-  <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
-    <t>separating (from); aloof (from)</t>
-  </si>
-  <si>
-    <t>rising (from); emerging (from); getting up (from)</t>
-  </si>
-  <si>
-    <t>sitting down</t>
-  </si>
-  <si>
     <t>stability; constancy; continuity; endurance; persistence; longevity; lit. standing</t>
   </si>
   <si>
@@ -6028,21 +6028,21 @@
     <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
+    <t>mindfulness; presence; recollection; awareness</t>
+  </si>
+  <si>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
     <t>good destination; happy fate</t>
   </si>
   <si>
-    <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
     <t>freedom; liberation; release; deliverance</t>
   </si>
   <si>
@@ -6052,48 +6052,48 @@
     <t>wherever; where; when; in which</t>
   </si>
   <si>
+    <t>in that case; in that regard; in this matter; in this connection</t>
+  </si>
+  <si>
+    <t>here; now; in this world</t>
+  </si>
+  <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>somewhere; anywhere</t>
+  </si>
+  <si>
+    <t>in front (of)</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>on one side</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
+  </si>
+  <si>
+    <t>since; because; due to the fact that; lit. from which</t>
+  </si>
+  <si>
+    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
+  </si>
+  <si>
     <t>here; in this place; in this case; in this regard</t>
   </si>
   <si>
-    <t>in that case; in that regard; in this matter; in this connection</t>
-  </si>
-  <si>
-    <t>here; now; in this world</t>
-  </si>
-  <si>
-    <t>somewhere; anywhere</t>
-  </si>
-  <si>
-    <t>in front (of)</t>
-  </si>
-  <si>
-    <t>here; in this regard; in this case</t>
-  </si>
-  <si>
-    <t>on one side</t>
-  </si>
-  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>since; because; due to the fact that; lit. from which</t>
-  </si>
-  <si>
-    <t>therefore; thereupon; thereby; because of that; after that; lit. from that</t>
-  </si>
-  <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -6154,277 +6154,277 @@
     <t>being; living being; entity; lit. become</t>
   </si>
   <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>homelessness; homeless state</t>
+  </si>
+  <si>
+    <t>household life; domestic living</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure; contentment</t>
+  </si>
+  <si>
+    <t>welfare (of); good (of); benefit (of); blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>effort; energy; might; power; lit. virility</t>
+  </si>
+  <si>
+    <t>expansion; full development; maturity</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>part of the body; limb</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>field; plot of land</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>footprint; footstep</t>
+  </si>
+  <si>
+    <t>supporter; supporting family; lit. family</t>
+  </si>
+  <si>
+    <t>jewel; gem; gemstone</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>giving up (of); letting go (of); removal (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>forest; wood; wilds; wilderness; lit. remoteness</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>livelihood; lifestyle; way of life</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>good fortune; good luck</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>(of the body) side; rib</t>
+  </si>
+  <si>
+    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>knowing (of); understanding (of); insight (into)</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>in order to visit; for the purpose of seeing</t>
+  </si>
+  <si>
+    <t>fruit; nut; berry</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>part; member</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>wood; forest; grove</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
+  </si>
+  <si>
+    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
+  </si>
+  <si>
+    <t>time; period; extent</t>
+  </si>
+  <si>
+    <t>alms; gift</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>insight; realization; spiritual vision; lit. seeing</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>meat; flesh</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>country; land; kingdom; realm</t>
+  </si>
+  <si>
+    <t>(mental) pleasure; happiness; joy</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>message; letter; lit. teaching</t>
+  </si>
+  <si>
+    <t>food; boiled rice; lit. shared</t>
+  </si>
+  <si>
+    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>effort; exertion; lit. to be burned</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>strength; power; might</t>
+  </si>
+  <si>
+    <t>mark; sign; symbol; indication</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>life; existence</t>
+  </si>
+  <si>
+    <t>nose; lit. smelling</t>
+  </si>
+  <si>
+    <t>few things; few people; small amount</t>
+  </si>
+  <si>
+    <t>long road; highroad; journey</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>mind; heart</t>
+  </si>
+  <si>
     <t>life</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>homelessness; homeless state</t>
-  </si>
-  <si>
-    <t>household life; domestic living</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure; contentment</t>
-  </si>
-  <si>
-    <t>welfare (of); good (of); benefit (of); blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>effort; energy; might; power; lit. virility</t>
-  </si>
-  <si>
-    <t>expansion; full development; maturity</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>part of the body; limb</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>field; plot of land</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>footprint; footstep</t>
-  </si>
-  <si>
-    <t>supporter; supporting family; lit. family</t>
-  </si>
-  <si>
-    <t>jewel; gem; gemstone</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>giving up (of); letting go (of); removal (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>forest; wood; wilds; wilderness; lit. remoteness</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>livelihood; lifestyle; way of life</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>good fortune; good luck</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>(of the body) side; rib</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>knowing (of); understanding (of); insight (into)</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>in order to visit; for the purpose of seeing</t>
-  </si>
-  <si>
-    <t>fruit; nut; berry</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>part; member</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>ear</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>wood; forest; grove</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
-  </si>
-  <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
-  </si>
-  <si>
-    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
-  </si>
-  <si>
-    <t>time; period; extent</t>
-  </si>
-  <si>
-    <t>alms; gift</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>insight; realization; spiritual vision; lit. seeing</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>meat; flesh</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>country; land; kingdom; realm</t>
-  </si>
-  <si>
-    <t>(mental) pleasure; happiness; joy</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>message; letter; lit. teaching</t>
-  </si>
-  <si>
-    <t>food; boiled rice; lit. shared</t>
-  </si>
-  <si>
-    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>effort; exertion; lit. to be burned</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>strength; power; might</t>
-  </si>
-  <si>
-    <t>mark; sign; symbol; indication</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>life; existence</t>
-  </si>
-  <si>
-    <t>nose; lit. smelling</t>
-  </si>
-  <si>
-    <t>few things; few people; small amount</t>
-  </si>
-  <si>
-    <t>long road; highroad; journey</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>mind; heart</t>
   </si>
   <si>
     <t>meditation; stage of meditation; lit. meditating</t>
@@ -11445,7 +11445,7 @@
         <v>1088</v>
       </c>
       <c r="C254" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="D254" t="s">
         <v>1088</v>
@@ -11462,7 +11462,7 @@
         <v>1088</v>
       </c>
       <c r="C255" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="D255" t="s">
         <v>1088</v>
@@ -11479,7 +11479,7 @@
         <v>1088</v>
       </c>
       <c r="C256" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D256" t="s">
         <v>1088</v>
@@ -11496,7 +11496,7 @@
         <v>1088</v>
       </c>
       <c r="C257" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D257" t="s">
         <v>1088</v>
@@ -11513,7 +11513,7 @@
         <v>1088</v>
       </c>
       <c r="C258" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D258" t="s">
         <v>1088</v>
@@ -11530,7 +11530,7 @@
         <v>1088</v>
       </c>
       <c r="C259" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="D259" t="s">
         <v>1088</v>
@@ -11547,7 +11547,7 @@
         <v>1088</v>
       </c>
       <c r="C260" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D260" t="s">
         <v>1088</v>
@@ -11564,7 +11564,7 @@
         <v>1088</v>
       </c>
       <c r="C261" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D261" t="s">
         <v>1088</v>
@@ -11581,7 +11581,7 @@
         <v>1088</v>
       </c>
       <c r="C262" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D262" t="s">
         <v>1088</v>
@@ -11598,7 +11598,7 @@
         <v>1088</v>
       </c>
       <c r="C263" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D263" t="s">
         <v>1088</v>
@@ -11615,7 +11615,7 @@
         <v>1088</v>
       </c>
       <c r="C264" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="D264" t="s">
         <v>1088</v>
@@ -11632,7 +11632,7 @@
         <v>1088</v>
       </c>
       <c r="C265" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D265" t="s">
         <v>1088</v>
@@ -11649,7 +11649,7 @@
         <v>1088</v>
       </c>
       <c r="C266" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="D266" t="s">
         <v>1088</v>
@@ -11666,7 +11666,7 @@
         <v>1088</v>
       </c>
       <c r="C267" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D267" t="s">
         <v>1088</v>
@@ -11683,7 +11683,7 @@
         <v>1088</v>
       </c>
       <c r="C268" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D268" t="s">
         <v>1088</v>
@@ -11700,7 +11700,7 @@
         <v>1088</v>
       </c>
       <c r="C269" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D269" t="s">
         <v>1088</v>
@@ -11717,7 +11717,7 @@
         <v>1088</v>
       </c>
       <c r="C270" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D270" t="s">
         <v>1088</v>
@@ -11734,7 +11734,7 @@
         <v>1088</v>
       </c>
       <c r="C271" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D271" t="s">
         <v>1088</v>
@@ -11751,7 +11751,7 @@
         <v>1088</v>
       </c>
       <c r="C272" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D272" t="s">
         <v>1088</v>
@@ -11768,7 +11768,7 @@
         <v>1088</v>
       </c>
       <c r="C273" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D273" t="s">
         <v>1088</v>
@@ -11785,7 +11785,7 @@
         <v>1088</v>
       </c>
       <c r="C274" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D274" t="s">
         <v>1088</v>
@@ -11802,7 +11802,7 @@
         <v>1088</v>
       </c>
       <c r="C275" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D275" t="s">
         <v>1088</v>
@@ -11819,7 +11819,7 @@
         <v>1088</v>
       </c>
       <c r="C276" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D276" t="s">
         <v>1088</v>
@@ -11836,7 +11836,7 @@
         <v>1088</v>
       </c>
       <c r="C277" t="s">
-        <v>1353</v>
+        <v>1376</v>
       </c>
       <c r="D277" t="s">
         <v>1088</v>
@@ -14981,7 +14981,7 @@
         <v>1086</v>
       </c>
       <c r="C462" t="s">
-        <v>1561</v>
+        <v>1511</v>
       </c>
       <c r="D462" t="s">
         <v>2179</v>
@@ -14998,7 +14998,7 @@
         <v>1086</v>
       </c>
       <c r="C463" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D463" t="s">
         <v>2179</v>
@@ -15015,7 +15015,7 @@
         <v>1086</v>
       </c>
       <c r="C464" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D464" t="s">
         <v>2179</v>
@@ -15032,7 +15032,7 @@
         <v>1086</v>
       </c>
       <c r="C465" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D465" t="s">
         <v>2179</v>
@@ -15049,7 +15049,7 @@
         <v>1086</v>
       </c>
       <c r="C466" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D466" t="s">
         <v>2179</v>
@@ -15066,7 +15066,7 @@
         <v>1086</v>
       </c>
       <c r="C467" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D467" t="s">
         <v>2179</v>
@@ -15083,7 +15083,7 @@
         <v>1086</v>
       </c>
       <c r="C468" t="s">
-        <v>1515</v>
+        <v>1566</v>
       </c>
       <c r="D468" t="s">
         <v>2179</v>
@@ -15916,7 +15916,7 @@
         <v>1086</v>
       </c>
       <c r="C517" t="s">
-        <v>1615</v>
+        <v>1473</v>
       </c>
       <c r="D517" t="s">
         <v>2179</v>
@@ -15933,7 +15933,7 @@
         <v>1086</v>
       </c>
       <c r="C518" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D518" t="s">
         <v>2179</v>
@@ -15950,7 +15950,7 @@
         <v>1086</v>
       </c>
       <c r="C519" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D519" t="s">
         <v>2179</v>
@@ -15967,7 +15967,7 @@
         <v>1086</v>
       </c>
       <c r="C520" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D520" t="s">
         <v>2179</v>
@@ -15984,7 +15984,7 @@
         <v>1086</v>
       </c>
       <c r="C521" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D521" t="s">
         <v>2179</v>
@@ -16001,7 +16001,7 @@
         <v>1086</v>
       </c>
       <c r="C522" t="s">
-        <v>1476</v>
+        <v>1619</v>
       </c>
       <c r="D522" t="s">
         <v>2179</v>
@@ -16321,7 +16321,7 @@
         <v>544</v>
       </c>
       <c r="B541" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C541" t="s">
         <v>1638</v>
@@ -16525,7 +16525,7 @@
         <v>556</v>
       </c>
       <c r="B553" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="C553" t="s">
         <v>1650</v>
@@ -21543,7 +21543,7 @@
         <v>1096</v>
       </c>
       <c r="C848" t="s">
-        <v>1443</v>
+        <v>1944</v>
       </c>
       <c r="D848" t="s">
         <v>2201</v>
@@ -21560,7 +21560,7 @@
         <v>1096</v>
       </c>
       <c r="C849" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="D849" t="s">
         <v>2201</v>
@@ -21577,7 +21577,7 @@
         <v>1096</v>
       </c>
       <c r="C850" t="s">
-        <v>1945</v>
+        <v>1442</v>
       </c>
       <c r="D850" t="s">
         <v>2201</v>
@@ -22070,7 +22070,7 @@
         <v>1093</v>
       </c>
       <c r="C879" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="D879" t="s">
         <v>1093</v>
@@ -22087,7 +22087,7 @@
         <v>1093</v>
       </c>
       <c r="C880" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="D880" t="s">
         <v>1093</v>
@@ -22121,7 +22121,7 @@
         <v>1093</v>
       </c>
       <c r="C882" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="D882" t="s">
         <v>1093</v>
@@ -22138,7 +22138,7 @@
         <v>1093</v>
       </c>
       <c r="C883" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="D883" t="s">
         <v>1093</v>
@@ -22937,7 +22937,7 @@
         <v>1088</v>
       </c>
       <c r="C930" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D930" t="s">
         <v>1088</v>
@@ -22954,7 +22954,7 @@
         <v>1088</v>
       </c>
       <c r="C931" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="D931" t="s">
         <v>1088</v>
@@ -25470,7 +25470,7 @@
         <v>1101</v>
       </c>
       <c r="C1079" t="s">
-        <v>2046</v>
+        <v>2136</v>
       </c>
       <c r="D1079" t="s">
         <v>2238</v>

--- a/pali-class/vocab/vocab-class21.xlsx
+++ b/pali-class/vocab/vocab-class21.xlsx
@@ -313,9 +313,6 @@
     <t>appamāṇa</t>
   </si>
   <si>
-    <t>maha 2</t>
-  </si>
-  <si>
     <t>vipula 1</t>
   </si>
   <si>
@@ -604,12 +601,12 @@
     <t>aṭṭhama 1</t>
   </si>
   <si>
+    <t>dasama 1</t>
+  </si>
+  <si>
     <t>navama</t>
   </si>
   <si>
-    <t>dasama 1</t>
-  </si>
-  <si>
     <t>pañcama</t>
   </si>
   <si>
@@ -2827,6 +2824,9 @@
     <t>kuto 1</t>
   </si>
   <si>
+    <t>kuto 3</t>
+  </si>
+  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2866,12 +2866,12 @@
     <t>atthāya 2</t>
   </si>
   <si>
+    <t>piṇḍāya</t>
+  </si>
+  <si>
     <t>atthāya 1</t>
   </si>
   <si>
-    <t>piṇḍāya</t>
-  </si>
-  <si>
     <t>adhikaraṇa 1</t>
   </si>
   <si>
@@ -3604,9 +3604,6 @@
     <t>immeasurable; unlimited; limitless; boundless</t>
   </si>
   <si>
-    <t>great; venerable; honourable; respected</t>
-  </si>
-  <si>
     <t>vast; extensive; expansive; massive</t>
   </si>
   <si>
@@ -3895,12 +3892,12 @@
     <t>eighth (8th)</t>
   </si>
   <si>
+    <t>tenth (10th)</t>
+  </si>
+  <si>
     <t>ninth (9th)</t>
   </si>
   <si>
-    <t>tenth (10th)</t>
-  </si>
-  <si>
     <t>fifth (5th)</t>
   </si>
   <si>
@@ -6094,6 +6091,9 @@
     <t>from where?; where?</t>
   </si>
   <si>
+    <t>let alone; not to mention; what to say of; lit. from where</t>
+  </si>
+  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -6133,10 +6133,10 @@
     <t>fortunate (for); beneficial (for); useful (for); lit. for the sake</t>
   </si>
   <si>
+    <t>for alms; to collect alms food</t>
+  </si>
+  <si>
     <t>for the purpose (of); for the sake (of); for the benefit (of)</t>
-  </si>
-  <si>
-    <t>for alms; to collect alms food</t>
   </si>
   <si>
     <t>(vinaya) issue; legal procedure; disciplinary proceedings; lit. law-suit</t>
@@ -9504,13 +9504,13 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C140" t="s">
         <v>1240</v>
       </c>
       <c r="D140" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="E140" t="s">
         <v>2240</v>
@@ -9521,13 +9521,13 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C141" t="s">
         <v>1241</v>
       </c>
       <c r="D141" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="E141" t="s">
         <v>2240</v>
@@ -9674,7 +9674,7 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C150" t="s">
         <v>1250</v>
@@ -9691,7 +9691,7 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C151" t="s">
         <v>1251</v>
@@ -10133,13 +10133,13 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C177" t="s">
         <v>1277</v>
       </c>
       <c r="D177" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="E177" t="s">
         <v>2240</v>
@@ -10156,7 +10156,7 @@
         <v>1278</v>
       </c>
       <c r="D178" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="E178" t="s">
         <v>2240</v>
@@ -10173,7 +10173,7 @@
         <v>1279</v>
       </c>
       <c r="D179" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="E179" t="s">
         <v>2240</v>
@@ -10190,7 +10190,7 @@
         <v>1280</v>
       </c>
       <c r="D180" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="E180" t="s">
         <v>2240</v>
@@ -10201,13 +10201,13 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="C181" t="s">
         <v>1281</v>
       </c>
       <c r="D181" t="s">
-        <v>2184</v>
+        <v>1088</v>
       </c>
       <c r="E181" t="s">
         <v>2240</v>
@@ -10269,13 +10269,13 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C185" t="s">
         <v>1285</v>
       </c>
       <c r="D185" t="s">
-        <v>1088</v>
+        <v>2185</v>
       </c>
       <c r="E185" t="s">
         <v>2240</v>
@@ -10326,7 +10326,7 @@
         <v>1288</v>
       </c>
       <c r="D188" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="E188" t="s">
         <v>2240</v>
@@ -10360,7 +10360,7 @@
         <v>1290</v>
       </c>
       <c r="D190" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="E190" t="s">
         <v>2240</v>
@@ -10371,16 +10371,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="C191" t="s">
         <v>1291</v>
       </c>
       <c r="D191" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="E191" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -10524,13 +10524,13 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C200" t="s">
         <v>1300</v>
       </c>
       <c r="D200" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="E200" t="s">
         <v>2241</v>
@@ -10632,7 +10632,7 @@
         <v>1306</v>
       </c>
       <c r="D206" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="E206" t="s">
         <v>2241</v>
@@ -10666,7 +10666,7 @@
         <v>1308</v>
       </c>
       <c r="D208" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="E208" t="s">
         <v>2241</v>
@@ -10683,7 +10683,7 @@
         <v>1309</v>
       </c>
       <c r="D209" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="E209" t="s">
         <v>2241</v>
@@ -10700,7 +10700,7 @@
         <v>1310</v>
       </c>
       <c r="D210" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="E210" t="s">
         <v>2241</v>
@@ -10717,7 +10717,7 @@
         <v>1311</v>
       </c>
       <c r="D211" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="E211" t="s">
         <v>2241</v>
@@ -10734,7 +10734,7 @@
         <v>1312</v>
       </c>
       <c r="D212" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="E212" t="s">
         <v>2241</v>
@@ -10745,16 +10745,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C213" t="s">
         <v>1313</v>
       </c>
       <c r="D213" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="E213" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -11102,13 +11102,13 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C234" t="s">
         <v>1334</v>
       </c>
       <c r="D234" t="s">
-        <v>2196</v>
+        <v>1088</v>
       </c>
       <c r="E234" t="s">
         <v>2242</v>
@@ -11428,7 +11428,7 @@
         <v>1088</v>
       </c>
       <c r="C253" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="D253" t="s">
         <v>1088</v>
@@ -11445,7 +11445,7 @@
         <v>1088</v>
       </c>
       <c r="C254" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="D254" t="s">
         <v>1088</v>
@@ -11867,13 +11867,13 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C279" t="s">
         <v>1378</v>
       </c>
       <c r="D279" t="s">
-        <v>1088</v>
+        <v>2177</v>
       </c>
       <c r="E279" t="s">
         <v>2242</v>
@@ -11901,16 +11901,16 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="C281" t="s">
         <v>1380</v>
       </c>
       <c r="D281" t="s">
-        <v>2177</v>
+        <v>2180</v>
       </c>
       <c r="E281" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -11935,13 +11935,13 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="C283" t="s">
         <v>1382</v>
       </c>
       <c r="D283" t="s">
-        <v>2180</v>
+        <v>2197</v>
       </c>
       <c r="E283" t="s">
         <v>2243</v>
@@ -12122,13 +12122,13 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C294" t="s">
         <v>1393</v>
       </c>
       <c r="D294" t="s">
-        <v>2197</v>
+        <v>1093</v>
       </c>
       <c r="E294" t="s">
         <v>2243</v>
@@ -12258,13 +12258,13 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C302" t="s">
         <v>1401</v>
       </c>
       <c r="D302" t="s">
-        <v>1093</v>
+        <v>2196</v>
       </c>
       <c r="E302" t="s">
         <v>2243</v>
@@ -12275,13 +12275,13 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C303" t="s">
         <v>1402</v>
       </c>
       <c r="D303" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="E303" t="s">
         <v>2243</v>
@@ -12292,13 +12292,13 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C304" t="s">
         <v>1403</v>
       </c>
       <c r="D304" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="E304" t="s">
         <v>2243</v>
@@ -12683,13 +12683,13 @@
         <v>330</v>
       </c>
       <c r="B327" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C327" t="s">
         <v>1426</v>
       </c>
       <c r="D327" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="E327" t="s">
         <v>2243</v>
@@ -12700,13 +12700,13 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C328" t="s">
         <v>1427</v>
       </c>
       <c r="D328" t="s">
-        <v>2200</v>
+        <v>1095</v>
       </c>
       <c r="E328" t="s">
         <v>2243</v>
@@ -12717,13 +12717,13 @@
         <v>332</v>
       </c>
       <c r="B329" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C329" t="s">
         <v>1428</v>
       </c>
       <c r="D329" t="s">
-        <v>1095</v>
+        <v>2201</v>
       </c>
       <c r="E329" t="s">
         <v>2243</v>
@@ -12734,16 +12734,16 @@
         <v>333</v>
       </c>
       <c r="B330" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="C330" t="s">
         <v>1429</v>
       </c>
       <c r="D330" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="E330" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -12757,7 +12757,7 @@
         <v>1430</v>
       </c>
       <c r="D331" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="E331" t="s">
         <v>2244</v>
@@ -12859,7 +12859,7 @@
         <v>1436</v>
       </c>
       <c r="D337" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="E337" t="s">
         <v>2244</v>
@@ -12876,10 +12876,10 @@
         <v>1437</v>
       </c>
       <c r="D338" t="s">
-        <v>2204</v>
+        <v>2179</v>
       </c>
       <c r="E338" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -14964,7 +14964,7 @@
         <v>1086</v>
       </c>
       <c r="C461" t="s">
-        <v>1560</v>
+        <v>1510</v>
       </c>
       <c r="D461" t="s">
         <v>2179</v>
@@ -14981,7 +14981,7 @@
         <v>1086</v>
       </c>
       <c r="C462" t="s">
-        <v>1511</v>
+        <v>1560</v>
       </c>
       <c r="D462" t="s">
         <v>2179</v>
@@ -15899,7 +15899,7 @@
         <v>1086</v>
       </c>
       <c r="C516" t="s">
-        <v>1614</v>
+        <v>1472</v>
       </c>
       <c r="D516" t="s">
         <v>2179</v>
@@ -15916,7 +15916,7 @@
         <v>1086</v>
       </c>
       <c r="C517" t="s">
-        <v>1473</v>
+        <v>1614</v>
       </c>
       <c r="D517" t="s">
         <v>2179</v>
@@ -16140,7 +16140,7 @@
         <v>1627</v>
       </c>
       <c r="D530" t="s">
-        <v>2179</v>
+        <v>2205</v>
       </c>
       <c r="E530" t="s">
         <v>2245</v>
@@ -16174,10 +16174,10 @@
         <v>1629</v>
       </c>
       <c r="D532" t="s">
-        <v>2205</v>
+        <v>2179</v>
       </c>
       <c r="E532" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -16219,13 +16219,13 @@
         <v>538</v>
       </c>
       <c r="B535" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="C535" t="s">
         <v>1632</v>
       </c>
       <c r="D535" t="s">
-        <v>2179</v>
+        <v>2196</v>
       </c>
       <c r="E535" t="s">
         <v>2246</v>
@@ -16508,7 +16508,7 @@
         <v>555</v>
       </c>
       <c r="B552" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="C552" t="s">
         <v>1649</v>
@@ -16525,7 +16525,7 @@
         <v>556</v>
       </c>
       <c r="B553" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C553" t="s">
         <v>1650</v>
@@ -17375,7 +17375,7 @@
         <v>606</v>
       </c>
       <c r="B603" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="C603" t="s">
         <v>1700</v>
@@ -17392,7 +17392,7 @@
         <v>607</v>
       </c>
       <c r="B604" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C604" t="s">
         <v>1701</v>
@@ -17415,7 +17415,7 @@
         <v>1702</v>
       </c>
       <c r="D605" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="E605" t="s">
         <v>2246</v>
@@ -17568,7 +17568,7 @@
         <v>1711</v>
       </c>
       <c r="D614" t="s">
-        <v>2199</v>
+        <v>2206</v>
       </c>
       <c r="E614" t="s">
         <v>2246</v>
@@ -17579,7 +17579,7 @@
         <v>618</v>
       </c>
       <c r="B615" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="C615" t="s">
         <v>1712</v>
@@ -17596,13 +17596,13 @@
         <v>619</v>
       </c>
       <c r="B616" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C616" t="s">
         <v>1713</v>
       </c>
       <c r="D616" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="E616" t="s">
         <v>2246</v>
@@ -17619,7 +17619,7 @@
         <v>1714</v>
       </c>
       <c r="D617" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="E617" t="s">
         <v>2246</v>
@@ -17664,7 +17664,7 @@
         <v>623</v>
       </c>
       <c r="B620" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="C620" t="s">
         <v>1717</v>
@@ -17681,7 +17681,7 @@
         <v>624</v>
       </c>
       <c r="B621" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C621" t="s">
         <v>1718</v>
@@ -17837,7 +17837,7 @@
         <v>1091</v>
       </c>
       <c r="C630" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="D630" t="s">
         <v>2208</v>
@@ -17854,7 +17854,7 @@
         <v>1091</v>
       </c>
       <c r="C631" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="D631" t="s">
         <v>2208</v>
@@ -17868,16 +17868,16 @@
         <v>635</v>
       </c>
       <c r="B632" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="C632" t="s">
         <v>1728</v>
       </c>
       <c r="D632" t="s">
-        <v>2208</v>
+        <v>2179</v>
       </c>
       <c r="E632" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -17902,13 +17902,13 @@
         <v>637</v>
       </c>
       <c r="B634" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="C634" t="s">
         <v>1730</v>
       </c>
       <c r="D634" t="s">
-        <v>2179</v>
+        <v>2196</v>
       </c>
       <c r="E634" t="s">
         <v>2247</v>
@@ -18180,7 +18180,7 @@
         <v>1746</v>
       </c>
       <c r="D650" t="s">
-        <v>2196</v>
+        <v>2209</v>
       </c>
       <c r="E650" t="s">
         <v>2247</v>
@@ -18225,7 +18225,7 @@
         <v>656</v>
       </c>
       <c r="B653" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="C653" t="s">
         <v>1749</v>
@@ -18242,7 +18242,7 @@
         <v>657</v>
       </c>
       <c r="B654" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C654" t="s">
         <v>1750</v>
@@ -18293,13 +18293,13 @@
         <v>660</v>
       </c>
       <c r="B657" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C657" t="s">
         <v>1753</v>
       </c>
       <c r="D657" t="s">
-        <v>2209</v>
+        <v>2198</v>
       </c>
       <c r="E657" t="s">
         <v>2247</v>
@@ -18316,7 +18316,7 @@
         <v>1754</v>
       </c>
       <c r="D658" t="s">
-        <v>2198</v>
+        <v>2210</v>
       </c>
       <c r="E658" t="s">
         <v>2247</v>
@@ -18344,13 +18344,13 @@
         <v>663</v>
       </c>
       <c r="B660" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="C660" t="s">
         <v>1756</v>
       </c>
       <c r="D660" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="E660" t="s">
         <v>2247</v>
@@ -18378,7 +18378,7 @@
         <v>665</v>
       </c>
       <c r="B662" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C662" t="s">
         <v>1758</v>
@@ -18412,13 +18412,13 @@
         <v>667</v>
       </c>
       <c r="B664" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C664" t="s">
         <v>1760</v>
       </c>
       <c r="D664" t="s">
-        <v>2211</v>
+        <v>2200</v>
       </c>
       <c r="E664" t="s">
         <v>2247</v>
@@ -18565,13 +18565,13 @@
         <v>676</v>
       </c>
       <c r="B673" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="C673" t="s">
         <v>1769</v>
       </c>
       <c r="D673" t="s">
-        <v>2200</v>
+        <v>2212</v>
       </c>
       <c r="E673" t="s">
         <v>2247</v>
@@ -18786,13 +18786,13 @@
         <v>689</v>
       </c>
       <c r="B686" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="C686" t="s">
         <v>1782</v>
       </c>
       <c r="D686" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="E686" t="s">
         <v>2247</v>
@@ -18803,7 +18803,7 @@
         <v>690</v>
       </c>
       <c r="B687" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="C687" t="s">
         <v>1783</v>
@@ -18820,13 +18820,13 @@
         <v>691</v>
       </c>
       <c r="B688" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C688" t="s">
         <v>1784</v>
       </c>
       <c r="D688" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="E688" t="s">
         <v>2247</v>
@@ -18871,13 +18871,13 @@
         <v>694</v>
       </c>
       <c r="B691" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="C691" t="s">
         <v>1787</v>
       </c>
       <c r="D691" t="s">
-        <v>2207</v>
+        <v>2214</v>
       </c>
       <c r="E691" t="s">
         <v>2247</v>
@@ -18945,7 +18945,7 @@
         <v>1791</v>
       </c>
       <c r="D695" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="E695" t="s">
         <v>2247</v>
@@ -18973,16 +18973,16 @@
         <v>700</v>
       </c>
       <c r="B697" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="C697" t="s">
         <v>1793</v>
       </c>
       <c r="D697" t="s">
-        <v>2215</v>
+        <v>2179</v>
       </c>
       <c r="E697" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -19126,13 +19126,13 @@
         <v>709</v>
       </c>
       <c r="B706" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C706" t="s">
         <v>1802</v>
       </c>
       <c r="D706" t="s">
-        <v>2179</v>
+        <v>2216</v>
       </c>
       <c r="E706" t="s">
         <v>2248</v>
@@ -19330,13 +19330,13 @@
         <v>721</v>
       </c>
       <c r="B718" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="C718" t="s">
         <v>1814</v>
       </c>
       <c r="D718" t="s">
-        <v>2216</v>
+        <v>2196</v>
       </c>
       <c r="E718" t="s">
         <v>2248</v>
@@ -19353,7 +19353,7 @@
         <v>1815</v>
       </c>
       <c r="D719" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="E719" t="s">
         <v>2248</v>
@@ -19364,13 +19364,13 @@
         <v>723</v>
       </c>
       <c r="B720" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C720" t="s">
         <v>1816</v>
       </c>
       <c r="D720" t="s">
-        <v>2199</v>
+        <v>1088</v>
       </c>
       <c r="E720" t="s">
         <v>2248</v>
@@ -19483,13 +19483,13 @@
         <v>730</v>
       </c>
       <c r="B727" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="C727" t="s">
         <v>1823</v>
       </c>
       <c r="D727" t="s">
-        <v>1088</v>
+        <v>2217</v>
       </c>
       <c r="E727" t="s">
         <v>2248</v>
@@ -19568,13 +19568,13 @@
         <v>735</v>
       </c>
       <c r="B732" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="C732" t="s">
         <v>1828</v>
       </c>
       <c r="D732" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="E732" t="s">
         <v>2248</v>
@@ -19585,13 +19585,13 @@
         <v>736</v>
       </c>
       <c r="B733" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="C733" t="s">
         <v>1829</v>
       </c>
       <c r="D733" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="E733" t="s">
         <v>2248</v>
@@ -19636,13 +19636,13 @@
         <v>739</v>
       </c>
       <c r="B736" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="C736" t="s">
         <v>1832</v>
       </c>
       <c r="D736" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E736" t="s">
         <v>2248</v>
@@ -19857,13 +19857,13 @@
         <v>752</v>
       </c>
       <c r="B749" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="C749" t="s">
         <v>1845</v>
       </c>
       <c r="D749" t="s">
-        <v>2220</v>
+        <v>2208</v>
       </c>
       <c r="E749" t="s">
         <v>2248</v>
@@ -19874,13 +19874,13 @@
         <v>753</v>
       </c>
       <c r="B750" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C750" t="s">
         <v>1846</v>
       </c>
       <c r="D750" t="s">
-        <v>2208</v>
+        <v>2186</v>
       </c>
       <c r="E750" t="s">
         <v>2248</v>
@@ -20061,13 +20061,13 @@
         <v>764</v>
       </c>
       <c r="B761" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C761" t="s">
         <v>1857</v>
       </c>
       <c r="D761" t="s">
-        <v>2186</v>
+        <v>2221</v>
       </c>
       <c r="E761" t="s">
         <v>2248</v>
@@ -20186,10 +20186,10 @@
         <v>1864</v>
       </c>
       <c r="D768" t="s">
-        <v>2221</v>
+        <v>2179</v>
       </c>
       <c r="E768" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="769" spans="1:5">
@@ -20214,13 +20214,13 @@
         <v>773</v>
       </c>
       <c r="B770" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C770" t="s">
         <v>1866</v>
       </c>
       <c r="D770" t="s">
-        <v>2179</v>
+        <v>2222</v>
       </c>
       <c r="E770" t="s">
         <v>2249</v>
@@ -20316,13 +20316,13 @@
         <v>779</v>
       </c>
       <c r="B776" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C776" t="s">
         <v>1872</v>
       </c>
       <c r="D776" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="E776" t="s">
         <v>2249</v>
@@ -20390,7 +20390,7 @@
         <v>1876</v>
       </c>
       <c r="D780" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="E780" t="s">
         <v>2249</v>
@@ -20475,7 +20475,7 @@
         <v>1881</v>
       </c>
       <c r="D785" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="E785" t="s">
         <v>2249</v>
@@ -20520,13 +20520,13 @@
         <v>791</v>
       </c>
       <c r="B788" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="C788" t="s">
         <v>1884</v>
       </c>
       <c r="D788" t="s">
-        <v>2225</v>
+        <v>2196</v>
       </c>
       <c r="E788" t="s">
         <v>2249</v>
@@ -20537,13 +20537,13 @@
         <v>792</v>
       </c>
       <c r="B789" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C789" t="s">
         <v>1885</v>
       </c>
       <c r="D789" t="s">
-        <v>2196</v>
+        <v>1088</v>
       </c>
       <c r="E789" t="s">
         <v>2249</v>
@@ -20741,13 +20741,13 @@
         <v>804</v>
       </c>
       <c r="B801" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C801" t="s">
         <v>1897</v>
       </c>
       <c r="D801" t="s">
-        <v>1088</v>
+        <v>2226</v>
       </c>
       <c r="E801" t="s">
         <v>2249</v>
@@ -20809,13 +20809,13 @@
         <v>808</v>
       </c>
       <c r="B805" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C805" t="s">
         <v>1901</v>
       </c>
       <c r="D805" t="s">
-        <v>2226</v>
+        <v>2186</v>
       </c>
       <c r="E805" t="s">
         <v>2249</v>
@@ -20832,7 +20832,7 @@
         <v>1902</v>
       </c>
       <c r="D806" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="E806" t="s">
         <v>2249</v>
@@ -20877,13 +20877,13 @@
         <v>812</v>
       </c>
       <c r="B809" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C809" t="s">
         <v>1905</v>
       </c>
       <c r="D809" t="s">
-        <v>2187</v>
+        <v>2227</v>
       </c>
       <c r="E809" t="s">
         <v>2249</v>
@@ -20917,10 +20917,10 @@
         <v>1907</v>
       </c>
       <c r="D811" t="s">
-        <v>2227</v>
+        <v>2179</v>
       </c>
       <c r="E811" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="812" spans="1:5">
@@ -20945,13 +20945,13 @@
         <v>816</v>
       </c>
       <c r="B813" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="C813" t="s">
         <v>1909</v>
       </c>
       <c r="D813" t="s">
-        <v>2179</v>
+        <v>2196</v>
       </c>
       <c r="E813" t="s">
         <v>2250</v>
@@ -20962,13 +20962,13 @@
         <v>817</v>
       </c>
       <c r="B814" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="C814" t="s">
         <v>1910</v>
       </c>
       <c r="D814" t="s">
-        <v>2196</v>
+        <v>2228</v>
       </c>
       <c r="E814" t="s">
         <v>2250</v>
@@ -21115,13 +21115,13 @@
         <v>826</v>
       </c>
       <c r="B823" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="C823" t="s">
         <v>1919</v>
       </c>
       <c r="D823" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="E823" t="s">
         <v>2250</v>
@@ -21132,13 +21132,13 @@
         <v>827</v>
       </c>
       <c r="B824" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="C824" t="s">
         <v>1920</v>
       </c>
       <c r="D824" t="s">
-        <v>2229</v>
+        <v>2213</v>
       </c>
       <c r="E824" t="s">
         <v>2250</v>
@@ -21155,7 +21155,7 @@
         <v>1921</v>
       </c>
       <c r="D825" t="s">
-        <v>2213</v>
+        <v>2230</v>
       </c>
       <c r="E825" t="s">
         <v>2250</v>
@@ -21189,7 +21189,7 @@
         <v>1923</v>
       </c>
       <c r="D827" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="E827" t="s">
         <v>2250</v>
@@ -21200,13 +21200,13 @@
         <v>831</v>
       </c>
       <c r="B828" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C828" t="s">
         <v>1924</v>
       </c>
       <c r="D828" t="s">
-        <v>2231</v>
+        <v>2201</v>
       </c>
       <c r="E828" t="s">
         <v>2250</v>
@@ -21560,7 +21560,7 @@
         <v>1096</v>
       </c>
       <c r="C849" t="s">
-        <v>1945</v>
+        <v>1441</v>
       </c>
       <c r="D849" t="s">
         <v>2201</v>
@@ -21577,7 +21577,7 @@
         <v>1096</v>
       </c>
       <c r="C850" t="s">
-        <v>1442</v>
+        <v>1945</v>
       </c>
       <c r="D850" t="s">
         <v>2201</v>
@@ -21812,16 +21812,16 @@
         <v>867</v>
       </c>
       <c r="B864" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="C864" t="s">
         <v>1959</v>
       </c>
       <c r="D864" t="s">
-        <v>2201</v>
+        <v>2179</v>
       </c>
       <c r="E864" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="865" spans="1:5">
@@ -21846,13 +21846,13 @@
         <v>869</v>
       </c>
       <c r="B866" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="C866" t="s">
         <v>1961</v>
       </c>
       <c r="D866" t="s">
-        <v>2179</v>
+        <v>1093</v>
       </c>
       <c r="E866" t="s">
         <v>2251</v>
@@ -22053,7 +22053,7 @@
         <v>1093</v>
       </c>
       <c r="C878" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="D878" t="s">
         <v>1093</v>
@@ -22070,7 +22070,7 @@
         <v>1093</v>
       </c>
       <c r="C879" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="D879" t="s">
         <v>1093</v>
@@ -22104,7 +22104,7 @@
         <v>1093</v>
       </c>
       <c r="C881" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="D881" t="s">
         <v>1093</v>
@@ -22121,7 +22121,7 @@
         <v>1093</v>
       </c>
       <c r="C882" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="D882" t="s">
         <v>1093</v>
@@ -22169,13 +22169,13 @@
         <v>888</v>
       </c>
       <c r="B885" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="C885" t="s">
         <v>1978</v>
       </c>
       <c r="D885" t="s">
-        <v>1093</v>
+        <v>2232</v>
       </c>
       <c r="E885" t="s">
         <v>2251</v>
@@ -22203,13 +22203,13 @@
         <v>890</v>
       </c>
       <c r="B887" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="C887" t="s">
         <v>1980</v>
       </c>
       <c r="D887" t="s">
-        <v>2232</v>
+        <v>1100</v>
       </c>
       <c r="E887" t="s">
         <v>2251</v>
@@ -22458,13 +22458,13 @@
         <v>905</v>
       </c>
       <c r="B902" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C902" t="s">
         <v>1995</v>
       </c>
       <c r="D902" t="s">
-        <v>1100</v>
+        <v>2233</v>
       </c>
       <c r="E902" t="s">
         <v>2251</v>
@@ -22713,13 +22713,13 @@
         <v>920</v>
       </c>
       <c r="B917" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="C917" t="s">
         <v>2010</v>
       </c>
       <c r="D917" t="s">
-        <v>2233</v>
+        <v>1088</v>
       </c>
       <c r="E917" t="s">
         <v>2251</v>
@@ -22920,7 +22920,7 @@
         <v>1088</v>
       </c>
       <c r="C929" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D929" t="s">
         <v>1088</v>
@@ -22937,7 +22937,7 @@
         <v>1088</v>
       </c>
       <c r="C930" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D930" t="s">
         <v>1088</v>

--- a/pali-class/vocab/vocab-class21.xlsx
+++ b/pali-class/vocab/vocab-class21.xlsx
@@ -2941,144 +2941,144 @@
     <t>mukha 3</t>
   </si>
   <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>dassana 3</t>
+  </si>
+  <si>
+    <t>raṭṭha</t>
+  </si>
+  <si>
+    <t>bhadra 3</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>pāpa 3</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>amata 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>jīva 2</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>jīvita 2</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>khetta 1</t>
+  </si>
+  <si>
+    <t>aṅga 3</t>
+  </si>
+  <si>
+    <t>cakka 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>dassana 3</t>
-  </si>
-  <si>
-    <t>raṭṭha</t>
-  </si>
-  <si>
-    <t>bhadra 3</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>pāpa 3</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>amata 1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>jīva 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>jīvita 2</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>khetta 1</t>
-  </si>
-  <si>
-    <t>aṅga 3</t>
-  </si>
-  <si>
-    <t>cakka 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
     <t>bhaya 3</t>
   </si>
   <si>
@@ -6220,142 +6220,142 @@
     <t>face</t>
   </si>
   <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>insight; realization; spiritual vision; lit. seeing</t>
+  </si>
+  <si>
+    <t>country; land; kingdom; realm</t>
+  </si>
+  <si>
+    <t>good fortune; good luck</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>livelihood; lifestyle; way of life</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>field; plot of land</t>
+  </si>
+  <si>
+    <t>factor; component; element; quality; aspect; lit. part</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>insight; realization; spiritual vision; lit. seeing</t>
-  </si>
-  <si>
-    <t>country; land; kingdom; realm</t>
-  </si>
-  <si>
-    <t>good fortune; good luck</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>livelihood; lifestyle; way of life</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>field; plot of land</t>
-  </si>
-  <si>
-    <t>factor; component; element; quality; aspect; lit. part</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
   </si>
   <si>
     <t>danger (of; from); peril (of; from)</t>
@@ -25523,7 +25523,7 @@
         <v>1104</v>
       </c>
       <c r="C1080" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D1080" t="s">
         <v>2250</v>

--- a/pali-class/vocab/vocab-class21.xlsx
+++ b/pali-class/vocab/vocab-class21.xlsx
@@ -568,12 +568,12 @@
     <t>aneka</t>
   </si>
   <si>
+    <t>aniccato</t>
+  </si>
+  <si>
     <t>attato</t>
   </si>
   <si>
-    <t>aniccato</t>
-  </si>
-  <si>
     <t>anattato</t>
   </si>
   <si>
@@ -874,33 +874,33 @@
     <t>bhāvita 1</t>
   </si>
   <si>
+    <t>vacanīya 2</t>
+  </si>
+  <si>
+    <t>pahātabba</t>
+  </si>
+  <si>
+    <t>veditabba 1</t>
+  </si>
+  <si>
+    <t>daṭṭhabba 1</t>
+  </si>
+  <si>
+    <t>sikkhitabba</t>
+  </si>
+  <si>
+    <t>bhāvetabba</t>
+  </si>
+  <si>
+    <t>sevitabba 2</t>
+  </si>
+  <si>
+    <t>karaṇīya 2</t>
+  </si>
+  <si>
     <t>kātabba 2</t>
   </si>
   <si>
-    <t>vacanīya 2</t>
-  </si>
-  <si>
-    <t>pahātabba</t>
-  </si>
-  <si>
-    <t>veditabba 1</t>
-  </si>
-  <si>
-    <t>daṭṭhabba 1</t>
-  </si>
-  <si>
-    <t>sikkhitabba</t>
-  </si>
-  <si>
-    <t>bhāvetabba</t>
-  </si>
-  <si>
-    <t>sevitabba 2</t>
-  </si>
-  <si>
-    <t>karaṇīya 2</t>
-  </si>
-  <si>
     <t>kāretabba 1</t>
   </si>
   <si>
@@ -2065,36 +2065,36 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>sārathi 2</t>
+  </si>
+  <si>
+    <t>kucchi 1</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>licchavi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>sārathi 2</t>
-  </si>
-  <si>
-    <t>kucchi 1</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>licchavi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -3694,7 +3694,7 @@
     <t>dark; black</t>
   </si>
   <si>
-    <t>brownish; colour of Buddhist monks’ robes</t>
+    <t>brownish; colour of Buddhist monks' robes</t>
   </si>
   <si>
     <t>fit (for); capable (of); suitable (for)</t>
@@ -3868,12 +3868,12 @@
     <t>many; various; countless; lit. not one</t>
   </si>
   <si>
+    <t>as impermanent; as unstable; as transient; as unreliable</t>
+  </si>
+  <si>
     <t>as oneself; as self</t>
   </si>
   <si>
-    <t>as impermanent; as unstable; as transient; as unreliable</t>
-  </si>
-  <si>
     <t>as impersonal; as not oneself; as non-subjective</t>
   </si>
   <si>
@@ -4063,7 +4063,7 @@
     <t>internally; inwardly; personally</t>
   </si>
   <si>
-    <t>by one’s own; oneself; one’s own</t>
+    <t>by one's own; oneself; one's own</t>
   </si>
   <si>
     <t>so; thus; in such a way; likewise; similarly</t>
@@ -4171,33 +4171,33 @@
     <t>cultivated; developed; lit. caused to be</t>
   </si>
   <si>
+    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
+  </si>
+  <si>
+    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
+  </si>
+  <si>
+    <t>can be known (by); should be understood (by); lit. to be known</t>
+  </si>
+  <si>
+    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
+  </si>
+  <si>
+    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
+  </si>
+  <si>
+    <t>should be cultivated; should be developed; lit. to be caused to be</t>
+  </si>
+  <si>
+    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
+  </si>
+  <si>
+    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
+  </si>
+  <si>
     <t>should be made; lit. to be done</t>
   </si>
   <si>
-    <t>should be spoken (to); should be told (to); should be said (to); lit. to be said</t>
-  </si>
-  <si>
-    <t>should be given up (by); should be abandoned (by); lit. to be abandoned</t>
-  </si>
-  <si>
-    <t>can be known (by); should be understood (by); lit. to be known</t>
-  </si>
-  <si>
-    <t>should be seen; should be regarded as; should be understood; lit. to be seen</t>
-  </si>
-  <si>
-    <t>should be learned (by); should be practised (by); should be trained (by); lit. to be trained</t>
-  </si>
-  <si>
-    <t>should be cultivated; should be developed; lit. to be caused to be</t>
-  </si>
-  <si>
-    <t>should be practised; should be followed; should be undertaken; lit. to be served</t>
-  </si>
-  <si>
-    <t>should be done; must be done; ought to be made; to be observed; lit. to be done</t>
-  </si>
-  <si>
     <t>should be made; should be done; should be built; lit. to be caused to do</t>
   </si>
   <si>
@@ -5353,36 +5353,36 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>(horse or elephant) trainer</t>
+  </si>
+  <si>
+    <t>stomach; belly</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>name of a prominent group of Khattiyas based in Vesālī</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>(horse or elephant) trainer</t>
-  </si>
-  <si>
-    <t>stomach; belly</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>name of a prominent group of Khattiyas based in Vesālī</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -5494,10 +5494,10 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>surely?; didn’t?; isn't it?; definitely</t>
-  </si>
-  <si>
-    <t>do not; may one not; don’t let</t>
+    <t>surely?; didn't?; isn't it?; definitely</t>
+  </si>
+  <si>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -6022,7 +6022,7 @@
     <t>rain; rainfall</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>hut; monk's dwelling</t>
   </si>
   <si>
     <t>outer robe; double robe; patchwork robe; lit. joined together</t>
@@ -6481,10 +6481,10 @@
     <t>too; also; as well</t>
   </si>
   <si>
-    <t>could it be?; what if?; shall?; let’s?; perhaps?</t>
-  </si>
-  <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>could it be?; what if?; shall?; let's?; perhaps?</t>
+  </si>
+  <si>
+    <t>(adds a question mark) surely?; didn't?; wouldn't?; which?</t>
   </si>
   <si>
     <t>just; only</t>
@@ -6514,7 +6514,7 @@
     <t>how?</t>
   </si>
   <si>
-    <t>that’s enough (of)!; stop (with)!</t>
+    <t>that's enough (of)!; stop (with)!</t>
   </si>
   <si>
     <t>enough; it is enough (for)</t>

--- a/pali-class/vocab/vocab-class21.xlsx
+++ b/pali-class/vocab/vocab-class21.xlsx
@@ -475,6 +475,9 @@
     <t>adhigata 1</t>
   </si>
   <si>
+    <t>paricita</t>
+  </si>
+  <si>
     <t>santuṭṭha 1</t>
   </si>
   <si>
@@ -514,9 +517,6 @@
     <t>pahīna</t>
   </si>
   <si>
-    <t>paricita</t>
-  </si>
-  <si>
     <t>puṭṭha 1.1</t>
   </si>
   <si>
@@ -553,12 +553,12 @@
     <t>vusita 1</t>
   </si>
   <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
     <t>pāpaka 1.1</t>
   </si>
   <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
     <t>mahanta 1</t>
   </si>
   <si>
@@ -850,15 +850,15 @@
     <t>atha 1</t>
   </si>
   <si>
+    <t>atha 2</t>
+  </si>
+  <si>
     <t>aññathā 1</t>
   </si>
   <si>
     <t>accayena 2</t>
   </si>
   <si>
-    <t>atha 2</t>
-  </si>
-  <si>
     <t>yebhuyyena</t>
   </si>
   <si>
@@ -1138,426 +1138,426 @@
     <t>saṃvara 2</t>
   </si>
   <si>
+    <t>sara 2.1</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>attha 3.1</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>deva 4</t>
+  </si>
+  <si>
+    <t>sūriya 1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>padesa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>kopa 1</t>
+  </si>
+  <si>
+    <t>bhāva 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>piṇḍa 2</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>kodha 1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>moghapurisa</t>
+  </si>
+  <si>
+    <t>dhīra 2.2</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>nāga 2</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>sāmika 1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>pabbata 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>anta 3</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>kāla 1.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>pāsāda</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>sunakkhatta 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>anta 2</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>kaccāna</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>sara 2.1</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>attha 3.1</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>deva 4</t>
-  </si>
-  <si>
-    <t>sūriya 1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>padesa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>kopa 1</t>
-  </si>
-  <si>
-    <t>bhāva 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>piṇḍa 2</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kodha 1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>moghapurisa</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>dhīra 2.2</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>nāga 2</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>sāmika 1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>pabbata 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>anta 3</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>kāla 1.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>pāsāda</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>sunakkhatta 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>anta 2</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>kaccāna</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -1711,6 +1711,9 @@
     <t>ākaṅkhati</t>
   </si>
   <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>gaṇhati 1</t>
   </si>
   <si>
@@ -1750,102 +1753,99 @@
     <t>saṃvattati</t>
   </si>
   <si>
+    <t>payirupāsati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>kaṅkhati 1</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>passati 3</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>passa 2.1</t>
+  </si>
+  <si>
     <t>vasati</t>
   </si>
   <si>
-    <t>payirupāsati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>kaṅkhati 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>passati 3</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>passa 2.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1960,6 +1960,9 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -1975,9 +1978,6 @@
     <t>ujjhāyati</t>
   </si>
   <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
     <t>muñcati 2</t>
   </si>
   <si>
@@ -2167,24 +2167,24 @@
     <t>me 3</t>
   </si>
   <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
+    <t>me 2</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
-    <t>me 2</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -2359,6 +2359,9 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>cakkhumant 2</t>
+  </si>
+  <si>
     <t>āyasmant 1</t>
   </si>
   <si>
@@ -2368,9 +2371,6 @@
     <t>iddhimant</t>
   </si>
   <si>
-    <t>cakkhumant 2</t>
-  </si>
-  <si>
     <t>akkhātar</t>
   </si>
   <si>
@@ -2512,6 +2512,9 @@
     <t>assa 3.1</t>
   </si>
   <si>
+    <t>saddhā 2</t>
+  </si>
+  <si>
     <t>taṇhā 1</t>
   </si>
   <si>
@@ -2617,9 +2620,6 @@
     <t>desanā 3</t>
   </si>
   <si>
-    <t>saddhā 2</t>
-  </si>
-  <si>
     <t>vīmaṃsā 1</t>
   </si>
   <si>
@@ -2695,12 +2695,18 @@
     <t>samādāya 2</t>
   </si>
   <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
     <t>ādāya 3</t>
   </si>
   <si>
     <t>nissāya 1</t>
   </si>
   <si>
+    <t>paṇidhāya 1</t>
+  </si>
+  <si>
     <t>ādāya 1</t>
   </si>
   <si>
@@ -2725,15 +2731,9 @@
     <t>uṭṭhāya</t>
   </si>
   <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
     <t>nisajja</t>
   </si>
   <si>
-    <t>paṇidhāya 1</t>
-  </si>
-  <si>
     <t>vivicca</t>
   </si>
   <si>
@@ -2806,18 +2806,18 @@
     <t>tattha 1</t>
   </si>
   <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>ettha 1</t>
+  </si>
+  <si>
     <t>yato 2</t>
   </si>
   <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>ettha 1</t>
-  </si>
-  <si>
     <t>upari 1</t>
   </si>
   <si>
@@ -3001,6 +3001,9 @@
     <t>amata 1</t>
   </si>
   <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
     <t>adinna 1</t>
   </si>
   <si>
@@ -3187,9 +3190,6 @@
     <t>bala 2</t>
   </si>
   <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
     <t>dukkha 3</t>
   </si>
   <si>
@@ -3679,7 +3679,7 @@
     <t>progressing; moving on; (comm) ending; depletion</t>
   </si>
   <si>
-    <t>free from discursive thought; lit. free from discursive thought; free from exploring, without pondering</t>
+    <t>free from discursive thought</t>
   </si>
   <si>
     <t>free from thinking; free from reflection</t>
@@ -3775,6 +3775,9 @@
     <t>got; acquired; attained; achieved; lit. arrived at</t>
   </si>
   <si>
+    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
+  </si>
+  <si>
     <t>satisfied; pleased; content; happy with</t>
   </si>
   <si>
@@ -3814,9 +3817,6 @@
     <t>abandoned; dispelled; eliminated; removed; given up</t>
   </si>
   <si>
-    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
-  </si>
-  <si>
     <t>asked; questioned</t>
   </si>
   <si>
@@ -3853,12 +3853,12 @@
     <t>fulfilled; completed; finished; lit. lived</t>
   </si>
   <si>
+    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
+  </si>
+  <si>
     <t>bad; wicked; evil; wrong; worthless; harmful</t>
   </si>
   <si>
-    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
-  </si>
-  <si>
     <t>big; great; large; grand; vast; extensive</t>
   </si>
   <si>
@@ -4147,15 +4147,15 @@
     <t>then; also; and so; after that</t>
   </si>
   <si>
+    <t>but; rather; even</t>
+  </si>
+  <si>
     <t>differently; otherwise</t>
   </si>
   <si>
     <t>after the death (of); after the passing (of); lit. with the passing</t>
   </si>
   <si>
-    <t>but; rather; even</t>
-  </si>
-  <si>
     <t>mostly; almost all; more or less; generally; largely; by and large; for the most part</t>
   </si>
   <si>
@@ -4435,420 +4435,420 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
+    <t>sound; voice; tone</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>home; rest; shelter</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>sun; lit. shining</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>place; location; region; area</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>anger; wrath; rage; temper</t>
+  </si>
+  <si>
+    <t>state; condition; characteristic; nature</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>bit of food; alms food</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
+  </si>
+  <si>
+    <t>wise man; sage; intelligent person</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>tusker; bull elephant</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>mountain; hill</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>end; side; extreme</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>time; occasion</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>mansion; stately home; palace; building with pillars</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>name of a former monk; lit. good star sign</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>end (of); limit (of); finish (of); conclusion (of)</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>family name; lit. descendant of Kati</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
   </si>
   <si>
-    <t>sound; voice; tone</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>home; rest; shelter</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>sky</t>
-  </si>
-  <si>
-    <t>sun; lit. shining</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>place; location; region; area</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>anger; wrath; rage; temper</t>
-  </si>
-  <si>
-    <t>state; condition; characteristic; nature</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>bit of food; alms food</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>fool; worthless man; useless person; stupid person; lit. empty man</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>wise man; sage; intelligent person</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>tusker; bull elephant</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>mountain; hill</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>end; side; extreme</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>time; occasion</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>mansion; stately home; palace; building with pillars</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>name of a former monk; lit. good star sign</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>end (of); limit (of); finish (of); conclusion (of)</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>family name; lit. descendant of Kati</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
   </si>
   <si>
@@ -5002,6 +5002,9 @@
     <t>wishes (for); wants; desires; aspires (for)</t>
   </si>
   <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
@@ -5041,102 +5044,99 @@
     <t>leads (to); results (in); causes</t>
   </si>
   <si>
+    <t>associates closely (with); attends closely (to); sits at the feet (of); lit. sits around near</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>stands</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>has doubt (about); is uncertain (about)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>finds; encounters; meets with; lit. sees</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>see!; look (at)!</t>
+  </si>
+  <si>
     <t>lives; stays; resides (in)</t>
   </si>
   <si>
-    <t>associates closely (with); attends closely (to); sits at the feet (of); lit. sits around near</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>stands</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>has doubt (about); is uncertain (about)</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>finds; encounters; meets with; lit. sees</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>see!; look (at)!</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -5248,6 +5248,9 @@
     <t>is reborn (in); re-arises (in); lit. goes towards</t>
   </si>
   <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -5263,9 +5266,6 @@
     <t>finds fault; thinks badly of</t>
   </si>
   <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
     <t>gets angry (with); lit. releases</t>
   </si>
   <si>
@@ -5455,24 +5455,24 @@
     <t>to me; for me</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>our; of us; my (royal plural)</t>
+  </si>
+  <si>
+    <t>by me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>me (object)</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>our; of us; my (royal plural)</t>
-  </si>
-  <si>
-    <t>by me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -5647,6 +5647,9 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>person with sight; who can see; lit. having eyes quality</t>
+  </si>
+  <si>
     <t>venerable; reverend; lit. having age quality</t>
   </si>
   <si>
@@ -5656,9 +5659,6 @@
     <t>who has psychic powers; possessing supernatural ability; lit. having power quality</t>
   </si>
   <si>
-    <t>person with sight; who can see; lit. having eyes quality</t>
-  </si>
-  <si>
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
@@ -5800,6 +5800,9 @@
     <t>may be; could be; should be</t>
   </si>
   <si>
+    <t>confidence (in); assurance (in); conviction (in); lit. putting heart</t>
+  </si>
+  <si>
     <t>craving (for); wanting; desire (for); lit. thirst</t>
   </si>
   <si>
@@ -5902,9 +5905,6 @@
     <t>(vinaya) appointing; allocating; indicating; designating; showing; lit. pointing out</t>
   </si>
   <si>
-    <t>confidence (in); assurance (in); conviction (in); lit. putting heart</t>
-  </si>
-  <si>
     <t>inquiry; judgement; investigation; discrimination</t>
   </si>
   <si>
@@ -5977,12 +5977,18 @@
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
     <t>holding; carrying; having; with</t>
   </si>
   <si>
     <t>leaning (on); depending (on); being supported (by)</t>
   </si>
   <si>
+    <t>guiding; directing; determining; setting; lit. placing forward</t>
+  </si>
+  <si>
     <t>taking</t>
   </si>
   <si>
@@ -6007,15 +6013,9 @@
     <t>rising (from); emerging (from); getting up (from)</t>
   </si>
   <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
     <t>sitting down</t>
   </si>
   <si>
-    <t>guiding; directing; determining; setting; lit. placing forward</t>
-  </si>
-  <si>
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
@@ -6088,15 +6088,15 @@
     <t>there; in that place</t>
   </si>
   <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>here; in this place; in this case; in this regard</t>
+  </si>
+  <si>
     <t>since; because; due to the fact that; lit. from which</t>
   </si>
   <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
-    <t>here; in this place; in this case; in this regard</t>
-  </si>
-  <si>
     <t>above; overhead</t>
   </si>
   <si>
@@ -6280,6 +6280,9 @@
     <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
   </si>
   <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
     <t>which is not given; something not offered</t>
   </si>
   <si>
@@ -6464,9 +6467,6 @@
   </si>
   <si>
     <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
     <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
@@ -14303,7 +14303,7 @@
         <v>1089</v>
       </c>
       <c r="C420" t="s">
-        <v>1522</v>
+        <v>1495</v>
       </c>
       <c r="D420" t="s">
         <v>2186</v>
@@ -14320,7 +14320,7 @@
         <v>1089</v>
       </c>
       <c r="C421" t="s">
-        <v>1496</v>
+        <v>1522</v>
       </c>
       <c r="D421" t="s">
         <v>2186</v>
@@ -14541,7 +14541,7 @@
         <v>1089</v>
       </c>
       <c r="C434" t="s">
-        <v>1535</v>
+        <v>1522</v>
       </c>
       <c r="D434" t="s">
         <v>2186</v>
@@ -14558,7 +14558,7 @@
         <v>1089</v>
       </c>
       <c r="C435" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D435" t="s">
         <v>2186</v>
@@ -14575,7 +14575,7 @@
         <v>1089</v>
       </c>
       <c r="C436" t="s">
-        <v>1523</v>
+        <v>1536</v>
       </c>
       <c r="D436" t="s">
         <v>2186</v>
@@ -17445,7 +17445,7 @@
         <v>608</v>
       </c>
       <c r="B605" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="C605" t="s">
         <v>1705</v>
@@ -17462,7 +17462,7 @@
         <v>609</v>
       </c>
       <c r="B606" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="C606" t="s">
         <v>1706</v>
@@ -21698,7 +21698,7 @@
         <v>1099</v>
       </c>
       <c r="C855" t="s">
-        <v>1549</v>
+        <v>1954</v>
       </c>
       <c r="D855" t="s">
         <v>2209</v>
@@ -21715,7 +21715,7 @@
         <v>1099</v>
       </c>
       <c r="C856" t="s">
-        <v>1954</v>
+        <v>1547</v>
       </c>
       <c r="D856" t="s">
         <v>2209</v>
@@ -22939,7 +22939,7 @@
         <v>1091</v>
       </c>
       <c r="C928" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D928" t="s">
         <v>1091</v>
@@ -22956,7 +22956,7 @@
         <v>1091</v>
       </c>
       <c r="C929" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D929" t="s">
         <v>1091</v>
@@ -25523,7 +25523,7 @@
         <v>1104</v>
       </c>
       <c r="C1080" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="D1080" t="s">
         <v>2250</v>
